--- a/scrum/PMOInformatica Plantilla de Sprint Backlog.xlsx
+++ b/scrum/PMOInformatica Plantilla de Sprint Backlog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\usfx\COM-350 Arquitectura de software\2-2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\Telegram Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7275"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10215"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint Backlog" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$15</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sprint Backlog'!$A$1:$BR$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sprint Backlog'!$A$1:$BR$93</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Sprint Backlog'!$B:$F,'Sprint Backlog'!$1:$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="75">
   <si>
     <t>Columna</t>
   </si>
@@ -33,27 +33,12 @@
     <t>Instrucciones</t>
   </si>
   <si>
-    <t>XX-XXXX-XXXX</t>
-  </si>
-  <si>
     <t>Elaborado por: pmoinformatica.com</t>
   </si>
   <si>
     <t>Tarea</t>
   </si>
   <si>
-    <t>[Enunciado de tarea 1]</t>
-  </si>
-  <si>
-    <t>[Enunciado de tarea 2]</t>
-  </si>
-  <si>
-    <t>[Enunciado de tarea 3]</t>
-  </si>
-  <si>
-    <t>[Enunciado de tarea 4]</t>
-  </si>
-  <si>
     <t>Dueño / Voluntario</t>
   </si>
   <si>
@@ -180,7 +165,91 @@
     <t>Estado actual de la tarea. Los tipos de estatus son decididos por el equipo de desarrollo (Pueden ser asesorados por el Scrum Master). Por ejemplo, una clasificación de estatus podría ser: Por iniciar, en proceso y hecho (completado). La clasificación de estatus también se puede vincular con las columnas que se reflejan en un tablero Kanban (Si el equipo decide usar un tablero Kanban).</t>
   </si>
   <si>
-    <t>Como [Rol], quiero [descripción de la funcionalidad], para poder [Razón o Resultado]</t>
+    <t>hu-1</t>
+  </si>
+  <si>
+    <t>hu-2</t>
+  </si>
+  <si>
+    <t>hu-3</t>
+  </si>
+  <si>
+    <t>hu-4</t>
+  </si>
+  <si>
+    <t>hacer la base de datos</t>
+  </si>
+  <si>
+    <t>realizar un formulario para crear las tareas</t>
+  </si>
+  <si>
+    <t>Como [Usuario], quiero [guardar tareas [para poder gestionarlas  y ser mas prodcutivo]</t>
+  </si>
+  <si>
+    <t>Como [Usuario ], quiero [eliminar tareas], para poder [vaciar las tareas  ya realizadas]</t>
+  </si>
+  <si>
+    <t>un boton para eliminar las tareas</t>
+  </si>
+  <si>
+    <t>eliminar archivos basura de la base de datos</t>
+  </si>
+  <si>
+    <t>Como [Usuario ], quiero [tener un vista pricipal de todas mis tareas ], para poder [para saber que tareas me falta realizar]</t>
+  </si>
+  <si>
+    <t>Realizar un vista principal para las tareas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crear los servicios </t>
+  </si>
+  <si>
+    <t>desarrollar peticiones asincronas</t>
+  </si>
+  <si>
+    <t>obtencion de datos del formulario</t>
+  </si>
+  <si>
+    <t>Como [Usuario], quiero [registrarme ], para poder [gestionar mis tareas y sean privadas y solo yo pueda verlas]</t>
+  </si>
+  <si>
+    <t>realizar el formulario de login</t>
+  </si>
+  <si>
+    <t>crear vista del logion</t>
+  </si>
+  <si>
+    <t>peticion a base de datos</t>
+  </si>
+  <si>
+    <t>conexion a la base de datos</t>
+  </si>
+  <si>
+    <t>hu-5</t>
+  </si>
+  <si>
+    <t>Como [Usuario], quiero [un vista individual para cada tarea], para poder [para visualizar mejor mis tareas]</t>
+  </si>
+  <si>
+    <t>crear la vista de la tarea</t>
+  </si>
+  <si>
+    <t>conexion con la base de datos</t>
+  </si>
+  <si>
+    <t>Como [Usuario], quiero [editar tareas], para poder [corregir errores]</t>
+  </si>
+  <si>
+    <t>hu-6</t>
+  </si>
+  <si>
+    <t>un boton para editar tareas</t>
+  </si>
+  <si>
+    <t>realizar los servicios para cambiar la informacion</t>
+  </si>
+  <si>
+    <t>desarrollar Testing</t>
   </si>
 </sst>
 </file>
@@ -669,13 +738,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BQ17"/>
+  <dimension ref="B1:BQ35"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="AT6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,12 +823,12 @@
   <sheetData>
     <row r="1" spans="2:69" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="2:69" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B2" s="13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:69" ht="21" x14ac:dyDescent="0.35">
@@ -767,285 +836,285 @@
     </row>
     <row r="4" spans="2:69" x14ac:dyDescent="0.25">
       <c r="H4" s="14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="10"/>
       <c r="K4" s="14" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L4" s="15"/>
       <c r="M4" s="10"/>
       <c r="N4" s="14" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="O4" s="15"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="R4" s="15"/>
       <c r="S4" s="10"/>
       <c r="T4" s="14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="U4" s="15"/>
       <c r="V4" s="10"/>
       <c r="W4" s="14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="X4" s="15"/>
       <c r="Y4" s="10"/>
       <c r="Z4" s="14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AA4" s="15"/>
       <c r="AB4" s="10"/>
       <c r="AC4" s="14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AD4" s="15"/>
       <c r="AE4" s="10"/>
       <c r="AF4" s="14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AG4" s="15"/>
       <c r="AH4" s="10"/>
       <c r="AI4" s="14" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AJ4" s="15"/>
       <c r="AK4" s="10"/>
       <c r="AL4" s="14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AM4" s="15"/>
       <c r="AN4" s="10"/>
       <c r="AO4" s="14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AP4" s="15"/>
       <c r="AQ4" s="10"/>
       <c r="AR4" s="14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AS4" s="15"/>
       <c r="AT4" s="10"/>
       <c r="AU4" s="14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AV4" s="15"/>
       <c r="AW4" s="10"/>
       <c r="AX4" s="14" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AY4" s="15"/>
       <c r="AZ4" s="10"/>
       <c r="BA4" s="14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="BB4" s="15"/>
       <c r="BC4" s="10"/>
       <c r="BD4" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="BE4" s="15"/>
       <c r="BF4" s="10"/>
       <c r="BG4" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="BH4" s="15"/>
       <c r="BI4" s="10"/>
       <c r="BJ4" s="14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="BK4" s="15"/>
       <c r="BL4" s="10"/>
       <c r="BM4" s="14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="BN4" s="15"/>
       <c r="BO4" s="10"/>
       <c r="BP4" s="14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BQ4" s="15"/>
     </row>
     <row r="5" spans="2:69" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="I5" s="8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="P5" s="8"/>
       <c r="Q5" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="S5" s="8"/>
       <c r="T5" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="U5" s="8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="V5" s="8"/>
       <c r="W5" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="X5" s="8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Y5" s="8"/>
       <c r="Z5" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AA5" s="8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AB5" s="8"/>
       <c r="AC5" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AD5" s="8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AE5" s="8"/>
       <c r="AF5" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AG5" s="8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AH5" s="8"/>
       <c r="AI5" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AJ5" s="8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AK5" s="8"/>
       <c r="AL5" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AM5" s="8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AN5" s="8"/>
       <c r="AO5" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AP5" s="8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AQ5" s="8"/>
       <c r="AR5" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AS5" s="8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AT5" s="8"/>
       <c r="AU5" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AV5" s="8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AW5" s="8"/>
       <c r="AX5" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AY5" s="8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AZ5" s="8"/>
       <c r="BA5" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BB5" s="8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BC5" s="8"/>
       <c r="BD5" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BE5" s="8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BF5" s="8"/>
       <c r="BG5" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BH5" s="8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BI5" s="8"/>
       <c r="BJ5" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BK5" s="8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BL5" s="8"/>
       <c r="BM5" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BN5" s="8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BO5" s="8"/>
       <c r="BP5" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BQ5" s="8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:69" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -1179,11 +1248,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:69" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:69" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1321,7 +1390,7 @@
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -1455,153 +1524,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="11"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V9" s="11"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="9"/>
-      <c r="AG9" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH9" s="11"/>
-      <c r="AI9" s="9"/>
-      <c r="AJ9" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AK9" s="11"/>
-      <c r="AL9" s="9"/>
-      <c r="AM9" s="9">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN9" s="11"/>
-      <c r="AO9" s="9"/>
-      <c r="AP9" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="11"/>
-      <c r="AR9" s="9"/>
-      <c r="AS9" s="9">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AT9" s="11"/>
-      <c r="AU9" s="9"/>
-      <c r="AV9" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AW9" s="11"/>
-      <c r="AX9" s="9"/>
-      <c r="AY9" s="9">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="11"/>
-      <c r="BA9" s="9"/>
-      <c r="BB9" s="9">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BC9" s="11"/>
-      <c r="BD9" s="9"/>
-      <c r="BE9" s="9">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="BF9" s="11"/>
-      <c r="BG9" s="9"/>
-      <c r="BH9" s="9">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="BI9" s="11"/>
-      <c r="BJ9" s="9"/>
-      <c r="BK9" s="9">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BL9" s="11"/>
-      <c r="BM9" s="9"/>
-      <c r="BN9" s="9">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BO9" s="11"/>
-      <c r="BP9" s="12">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="BQ9" s="12">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="10" spans="2:69" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -1739,7 +1670,7 @@
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -1873,11 +1804,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:69" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:69" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -2011,153 +1942,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="11"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="11"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V13" s="11"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="9"/>
-      <c r="AG13" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH13" s="11"/>
-      <c r="AI13" s="9"/>
-      <c r="AJ13" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AK13" s="11"/>
-      <c r="AL13" s="9"/>
-      <c r="AM13" s="9">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN13" s="11"/>
-      <c r="AO13" s="9"/>
-      <c r="AP13" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="11"/>
-      <c r="AR13" s="9"/>
-      <c r="AS13" s="9">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AT13" s="11"/>
-      <c r="AU13" s="9"/>
-      <c r="AV13" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AW13" s="11"/>
-      <c r="AX13" s="9"/>
-      <c r="AY13" s="9">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AZ13" s="11"/>
-      <c r="BA13" s="9"/>
-      <c r="BB13" s="9">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BC13" s="11"/>
-      <c r="BD13" s="9"/>
-      <c r="BE13" s="9">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="BF13" s="11"/>
-      <c r="BG13" s="9"/>
-      <c r="BH13" s="9">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="BI13" s="11"/>
-      <c r="BJ13" s="9"/>
-      <c r="BK13" s="9">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BL13" s="11"/>
-      <c r="BM13" s="9"/>
-      <c r="BN13" s="9">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BO13" s="11"/>
-      <c r="BP13" s="12">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="BQ13" s="12">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:69" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:69" ht="60" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -2295,7 +2088,7 @@
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -2429,11 +2222,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:69" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:69" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -2567,11 +2360,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:69" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:69" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -2705,8 +2498,1548 @@
         <v>0</v>
       </c>
     </row>
+    <row r="20" spans="2:69" ht="60" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9">
+        <f t="shared" ref="I20:I23" si="22">G20-H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="11"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9">
+        <f t="shared" ref="L20:L23" si="23">I20-K20</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="11"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9">
+        <f t="shared" ref="O20:O23" si="24">L20-N20</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9">
+        <f t="shared" ref="R20:R23" si="25">O20-Q20</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="11"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9">
+        <f t="shared" ref="U20:U23" si="26">R20-T20</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="11"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9">
+        <f t="shared" ref="X20:X23" si="27">U20-W20</f>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9">
+        <f t="shared" ref="AA20:AA23" si="28">X20-Z20</f>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9">
+        <f t="shared" ref="AD20:AD23" si="29">AA20-AC20</f>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9">
+        <f t="shared" ref="AG20:AG23" si="30">AD20-AF20</f>
+        <v>0</v>
+      </c>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="9"/>
+      <c r="AJ20" s="9">
+        <f t="shared" ref="AJ20:AJ23" si="31">AG20-AI20</f>
+        <v>0</v>
+      </c>
+      <c r="AK20" s="11"/>
+      <c r="AL20" s="9"/>
+      <c r="AM20" s="9">
+        <f t="shared" ref="AM20:AM23" si="32">AJ20-AL20</f>
+        <v>0</v>
+      </c>
+      <c r="AN20" s="11"/>
+      <c r="AO20" s="9"/>
+      <c r="AP20" s="9">
+        <f t="shared" ref="AP20:AP23" si="33">AM20-AO20</f>
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="11"/>
+      <c r="AR20" s="9"/>
+      <c r="AS20" s="9">
+        <f t="shared" ref="AS20:AS23" si="34">AP20-AR20</f>
+        <v>0</v>
+      </c>
+      <c r="AT20" s="11"/>
+      <c r="AU20" s="9"/>
+      <c r="AV20" s="9">
+        <f t="shared" ref="AV20:AV23" si="35">AS20-AU20</f>
+        <v>0</v>
+      </c>
+      <c r="AW20" s="11"/>
+      <c r="AX20" s="9"/>
+      <c r="AY20" s="9">
+        <f t="shared" ref="AY20:AY23" si="36">AV20-AX20</f>
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="11"/>
+      <c r="BA20" s="9"/>
+      <c r="BB20" s="9">
+        <f t="shared" ref="BB20:BB23" si="37">AY20-BA20</f>
+        <v>0</v>
+      </c>
+      <c r="BC20" s="11"/>
+      <c r="BD20" s="9"/>
+      <c r="BE20" s="9">
+        <f t="shared" ref="BE20:BE23" si="38">BB20-BD20</f>
+        <v>0</v>
+      </c>
+      <c r="BF20" s="11"/>
+      <c r="BG20" s="9"/>
+      <c r="BH20" s="9">
+        <f t="shared" ref="BH20:BH23" si="39">BE20-BG20</f>
+        <v>0</v>
+      </c>
+      <c r="BI20" s="11"/>
+      <c r="BJ20" s="9"/>
+      <c r="BK20" s="9">
+        <f t="shared" ref="BK20:BK23" si="40">BH20-BJ20</f>
+        <v>0</v>
+      </c>
+      <c r="BL20" s="11"/>
+      <c r="BM20" s="9"/>
+      <c r="BN20" s="9">
+        <f t="shared" ref="BN20:BN23" si="41">BK20-BM20</f>
+        <v>0</v>
+      </c>
+      <c r="BO20" s="11"/>
+      <c r="BP20" s="12">
+        <f t="shared" ref="BP20:BP23" si="42">H20+K20+N20+Q20+T20+W20+Z20+AC20+AF20+AI20+AL20+AO20+AR20+AU20+AX20+BA20+BD20+BG20+BJ20+BM20</f>
+        <v>0</v>
+      </c>
+      <c r="BQ20" s="12">
+        <f t="shared" ref="BQ20:BQ23" si="43">G20-BP20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="11"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="11"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="11"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="11"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="9">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AH21" s="11"/>
+      <c r="AI21" s="9"/>
+      <c r="AJ21" s="9">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AK21" s="11"/>
+      <c r="AL21" s="9"/>
+      <c r="AM21" s="9">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AN21" s="11"/>
+      <c r="AO21" s="9"/>
+      <c r="AP21" s="9">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="11"/>
+      <c r="AR21" s="9"/>
+      <c r="AS21" s="9">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AT21" s="11"/>
+      <c r="AU21" s="9"/>
+      <c r="AV21" s="9">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AW21" s="11"/>
+      <c r="AX21" s="9"/>
+      <c r="AY21" s="9">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="11"/>
+      <c r="BA21" s="9"/>
+      <c r="BB21" s="9">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BC21" s="11"/>
+      <c r="BD21" s="9"/>
+      <c r="BE21" s="9">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BF21" s="11"/>
+      <c r="BG21" s="9"/>
+      <c r="BH21" s="9">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BI21" s="11"/>
+      <c r="BJ21" s="9"/>
+      <c r="BK21" s="9">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="BL21" s="11"/>
+      <c r="BM21" s="9"/>
+      <c r="BN21" s="9">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="BO21" s="11"/>
+      <c r="BP21" s="12">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BQ21" s="12">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:69" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="11"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="11"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="11"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="11"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="9">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AH22" s="11"/>
+      <c r="AI22" s="9"/>
+      <c r="AJ22" s="9">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AK22" s="11"/>
+      <c r="AL22" s="9"/>
+      <c r="AM22" s="9">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AN22" s="11"/>
+      <c r="AO22" s="9"/>
+      <c r="AP22" s="9">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="11"/>
+      <c r="AR22" s="9"/>
+      <c r="AS22" s="9">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AT22" s="11"/>
+      <c r="AU22" s="9"/>
+      <c r="AV22" s="9">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AW22" s="11"/>
+      <c r="AX22" s="9"/>
+      <c r="AY22" s="9">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="11"/>
+      <c r="BA22" s="9"/>
+      <c r="BB22" s="9">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BC22" s="11"/>
+      <c r="BD22" s="9"/>
+      <c r="BE22" s="9">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BF22" s="11"/>
+      <c r="BG22" s="9"/>
+      <c r="BH22" s="9">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BI22" s="11"/>
+      <c r="BJ22" s="9"/>
+      <c r="BK22" s="9">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="BL22" s="11"/>
+      <c r="BM22" s="9"/>
+      <c r="BN22" s="9">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="BO22" s="11"/>
+      <c r="BP22" s="12">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BQ22" s="12">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:69" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="11"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="11"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="11"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="V23" s="11"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="9"/>
+      <c r="AJ23" s="9">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AK23" s="11"/>
+      <c r="AL23" s="9"/>
+      <c r="AM23" s="9">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AN23" s="11"/>
+      <c r="AO23" s="9"/>
+      <c r="AP23" s="9">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="11"/>
+      <c r="AR23" s="9"/>
+      <c r="AS23" s="9">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AT23" s="11"/>
+      <c r="AU23" s="9"/>
+      <c r="AV23" s="9">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AW23" s="11"/>
+      <c r="AX23" s="9"/>
+      <c r="AY23" s="9">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AZ23" s="11"/>
+      <c r="BA23" s="9"/>
+      <c r="BB23" s="9">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BC23" s="11"/>
+      <c r="BD23" s="9"/>
+      <c r="BE23" s="9">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BF23" s="11"/>
+      <c r="BG23" s="9"/>
+      <c r="BH23" s="9">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BI23" s="11"/>
+      <c r="BJ23" s="9"/>
+      <c r="BK23" s="9">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="BL23" s="11"/>
+      <c r="BM23" s="9"/>
+      <c r="BN23" s="9">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="BO23" s="11"/>
+      <c r="BP23" s="12">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BQ23" s="12">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:69" ht="60" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9">
+        <f t="shared" ref="I26:I28" si="44">G26-H26</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="11"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9">
+        <f t="shared" ref="L26:L28" si="45">I26-K26</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="11"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9">
+        <f t="shared" ref="O26:O28" si="46">L26-N26</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9">
+        <f t="shared" ref="R26:R28" si="47">O26-Q26</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="11"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9">
+        <f t="shared" ref="U26:U28" si="48">R26-T26</f>
+        <v>0</v>
+      </c>
+      <c r="V26" s="11"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9">
+        <f t="shared" ref="X26:X28" si="49">U26-W26</f>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9">
+        <f t="shared" ref="AA26:AA28" si="50">X26-Z26</f>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9">
+        <f t="shared" ref="AD26:AD28" si="51">AA26-AC26</f>
+        <v>0</v>
+      </c>
+      <c r="AE26" s="11"/>
+      <c r="AF26" s="9"/>
+      <c r="AG26" s="9">
+        <f t="shared" ref="AG26:AG28" si="52">AD26-AF26</f>
+        <v>0</v>
+      </c>
+      <c r="AH26" s="11"/>
+      <c r="AI26" s="9"/>
+      <c r="AJ26" s="9">
+        <f t="shared" ref="AJ26:AJ28" si="53">AG26-AI26</f>
+        <v>0</v>
+      </c>
+      <c r="AK26" s="11"/>
+      <c r="AL26" s="9"/>
+      <c r="AM26" s="9">
+        <f t="shared" ref="AM26:AM28" si="54">AJ26-AL26</f>
+        <v>0</v>
+      </c>
+      <c r="AN26" s="11"/>
+      <c r="AO26" s="9"/>
+      <c r="AP26" s="9">
+        <f t="shared" ref="AP26:AP28" si="55">AM26-AO26</f>
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="11"/>
+      <c r="AR26" s="9"/>
+      <c r="AS26" s="9">
+        <f t="shared" ref="AS26:AS28" si="56">AP26-AR26</f>
+        <v>0</v>
+      </c>
+      <c r="AT26" s="11"/>
+      <c r="AU26" s="9"/>
+      <c r="AV26" s="9">
+        <f t="shared" ref="AV26:AV28" si="57">AS26-AU26</f>
+        <v>0</v>
+      </c>
+      <c r="AW26" s="11"/>
+      <c r="AX26" s="9"/>
+      <c r="AY26" s="9">
+        <f t="shared" ref="AY26:AY28" si="58">AV26-AX26</f>
+        <v>0</v>
+      </c>
+      <c r="AZ26" s="11"/>
+      <c r="BA26" s="9"/>
+      <c r="BB26" s="9">
+        <f t="shared" ref="BB26:BB28" si="59">AY26-BA26</f>
+        <v>0</v>
+      </c>
+      <c r="BC26" s="11"/>
+      <c r="BD26" s="9"/>
+      <c r="BE26" s="9">
+        <f t="shared" ref="BE26:BE28" si="60">BB26-BD26</f>
+        <v>0</v>
+      </c>
+      <c r="BF26" s="11"/>
+      <c r="BG26" s="9"/>
+      <c r="BH26" s="9">
+        <f t="shared" ref="BH26:BH28" si="61">BE26-BG26</f>
+        <v>0</v>
+      </c>
+      <c r="BI26" s="11"/>
+      <c r="BJ26" s="9"/>
+      <c r="BK26" s="9">
+        <f t="shared" ref="BK26:BK28" si="62">BH26-BJ26</f>
+        <v>0</v>
+      </c>
+      <c r="BL26" s="11"/>
+      <c r="BM26" s="9"/>
+      <c r="BN26" s="9">
+        <f t="shared" ref="BN26:BN28" si="63">BK26-BM26</f>
+        <v>0</v>
+      </c>
+      <c r="BO26" s="11"/>
+      <c r="BP26" s="12">
+        <f t="shared" ref="BP26:BP28" si="64">H26+K26+N26+Q26+T26+W26+Z26+AC26+AF26+AI26+AL26+AO26+AR26+AU26+AX26+BA26+BD26+BG26+BJ26+BM26</f>
+        <v>0</v>
+      </c>
+      <c r="BQ26" s="12">
+        <f t="shared" ref="BQ26:BQ28" si="65">G26-BP26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:69" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="11"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="11"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="11"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="V27" s="11"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="9"/>
+      <c r="AD27" s="9">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="9"/>
+      <c r="AG27" s="9">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AH27" s="11"/>
+      <c r="AI27" s="9"/>
+      <c r="AJ27" s="9">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AK27" s="11"/>
+      <c r="AL27" s="9"/>
+      <c r="AM27" s="9">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AN27" s="11"/>
+      <c r="AO27" s="9"/>
+      <c r="AP27" s="9">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="11"/>
+      <c r="AR27" s="9"/>
+      <c r="AS27" s="9">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AT27" s="11"/>
+      <c r="AU27" s="9"/>
+      <c r="AV27" s="9">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AW27" s="11"/>
+      <c r="AX27" s="9"/>
+      <c r="AY27" s="9">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AZ27" s="11"/>
+      <c r="BA27" s="9"/>
+      <c r="BB27" s="9">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="BC27" s="11"/>
+      <c r="BD27" s="9"/>
+      <c r="BE27" s="9">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="BF27" s="11"/>
+      <c r="BG27" s="9"/>
+      <c r="BH27" s="9">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="BI27" s="11"/>
+      <c r="BJ27" s="9"/>
+      <c r="BK27" s="9">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="BL27" s="11"/>
+      <c r="BM27" s="9"/>
+      <c r="BN27" s="9">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="BO27" s="11"/>
+      <c r="BP27" s="12">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="BQ27" s="12">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:69" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="11"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="11"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="11"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="V28" s="11"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="9"/>
+      <c r="AD28" s="9">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="9"/>
+      <c r="AG28" s="9">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AH28" s="11"/>
+      <c r="AI28" s="9"/>
+      <c r="AJ28" s="9">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AK28" s="11"/>
+      <c r="AL28" s="9"/>
+      <c r="AM28" s="9">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AN28" s="11"/>
+      <c r="AO28" s="9"/>
+      <c r="AP28" s="9">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="11"/>
+      <c r="AR28" s="9"/>
+      <c r="AS28" s="9">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AT28" s="11"/>
+      <c r="AU28" s="9"/>
+      <c r="AV28" s="9">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AW28" s="11"/>
+      <c r="AX28" s="9"/>
+      <c r="AY28" s="9">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AZ28" s="11"/>
+      <c r="BA28" s="9"/>
+      <c r="BB28" s="9">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="BC28" s="11"/>
+      <c r="BD28" s="9"/>
+      <c r="BE28" s="9">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="BF28" s="11"/>
+      <c r="BG28" s="9"/>
+      <c r="BH28" s="9">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="BI28" s="11"/>
+      <c r="BJ28" s="9"/>
+      <c r="BK28" s="9">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="BL28" s="11"/>
+      <c r="BM28" s="9"/>
+      <c r="BN28" s="9">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="BO28" s="11"/>
+      <c r="BP28" s="12">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="BQ28" s="12">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:69" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9">
+        <f t="shared" ref="I32:I35" si="66">G32-H32</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="11"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9">
+        <f t="shared" ref="L32:L35" si="67">I32-K32</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="11"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9">
+        <f t="shared" ref="O32:O35" si="68">L32-N32</f>
+        <v>0</v>
+      </c>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9">
+        <f t="shared" ref="R32:R35" si="69">O32-Q32</f>
+        <v>0</v>
+      </c>
+      <c r="S32" s="11"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9">
+        <f t="shared" ref="U32:U35" si="70">R32-T32</f>
+        <v>0</v>
+      </c>
+      <c r="V32" s="11"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9">
+        <f t="shared" ref="X32:X35" si="71">U32-W32</f>
+        <v>0</v>
+      </c>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="9">
+        <f t="shared" ref="AA32:AA35" si="72">X32-Z32</f>
+        <v>0</v>
+      </c>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="9"/>
+      <c r="AD32" s="9">
+        <f t="shared" ref="AD32:AD35" si="73">AA32-AC32</f>
+        <v>0</v>
+      </c>
+      <c r="AE32" s="11"/>
+      <c r="AF32" s="9"/>
+      <c r="AG32" s="9">
+        <f t="shared" ref="AG32:AG35" si="74">AD32-AF32</f>
+        <v>0</v>
+      </c>
+      <c r="AH32" s="11"/>
+      <c r="AI32" s="9"/>
+      <c r="AJ32" s="9">
+        <f t="shared" ref="AJ32:AJ35" si="75">AG32-AI32</f>
+        <v>0</v>
+      </c>
+      <c r="AK32" s="11"/>
+      <c r="AL32" s="9"/>
+      <c r="AM32" s="9">
+        <f t="shared" ref="AM32:AM35" si="76">AJ32-AL32</f>
+        <v>0</v>
+      </c>
+      <c r="AN32" s="11"/>
+      <c r="AO32" s="9"/>
+      <c r="AP32" s="9">
+        <f t="shared" ref="AP32:AP35" si="77">AM32-AO32</f>
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="11"/>
+      <c r="AR32" s="9"/>
+      <c r="AS32" s="9">
+        <f t="shared" ref="AS32:AS35" si="78">AP32-AR32</f>
+        <v>0</v>
+      </c>
+      <c r="AT32" s="11"/>
+      <c r="AU32" s="9"/>
+      <c r="AV32" s="9">
+        <f t="shared" ref="AV32:AV35" si="79">AS32-AU32</f>
+        <v>0</v>
+      </c>
+      <c r="AW32" s="11"/>
+      <c r="AX32" s="9"/>
+      <c r="AY32" s="9">
+        <f t="shared" ref="AY32:AY35" si="80">AV32-AX32</f>
+        <v>0</v>
+      </c>
+      <c r="AZ32" s="11"/>
+      <c r="BA32" s="9"/>
+      <c r="BB32" s="9">
+        <f t="shared" ref="BB32:BB35" si="81">AY32-BA32</f>
+        <v>0</v>
+      </c>
+      <c r="BC32" s="11"/>
+      <c r="BD32" s="9"/>
+      <c r="BE32" s="9">
+        <f t="shared" ref="BE32:BE35" si="82">BB32-BD32</f>
+        <v>0</v>
+      </c>
+      <c r="BF32" s="11"/>
+      <c r="BG32" s="9"/>
+      <c r="BH32" s="9">
+        <f t="shared" ref="BH32:BH35" si="83">BE32-BG32</f>
+        <v>0</v>
+      </c>
+      <c r="BI32" s="11"/>
+      <c r="BJ32" s="9"/>
+      <c r="BK32" s="9">
+        <f t="shared" ref="BK32:BK35" si="84">BH32-BJ32</f>
+        <v>0</v>
+      </c>
+      <c r="BL32" s="11"/>
+      <c r="BM32" s="9"/>
+      <c r="BN32" s="9">
+        <f t="shared" ref="BN32:BN35" si="85">BK32-BM32</f>
+        <v>0</v>
+      </c>
+      <c r="BO32" s="11"/>
+      <c r="BP32" s="12">
+        <f t="shared" ref="BP32:BP35" si="86">H32+K32+N32+Q32+T32+W32+Z32+AC32+AF32+AI32+AL32+AO32+AR32+AU32+AX32+BA32+BD32+BG32+BJ32+BM32</f>
+        <v>0</v>
+      </c>
+      <c r="BQ32" s="12">
+        <f t="shared" ref="BQ32:BQ35" si="87">G32-BP32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:69" ht="45" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="11"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="11"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="11"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="V33" s="11"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="9">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="9"/>
+      <c r="AD33" s="9">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AE33" s="11"/>
+      <c r="AF33" s="9"/>
+      <c r="AG33" s="9">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AH33" s="11"/>
+      <c r="AI33" s="9"/>
+      <c r="AJ33" s="9">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AK33" s="11"/>
+      <c r="AL33" s="9"/>
+      <c r="AM33" s="9">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AN33" s="11"/>
+      <c r="AO33" s="9"/>
+      <c r="AP33" s="9">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="11"/>
+      <c r="AR33" s="9"/>
+      <c r="AS33" s="9">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AT33" s="11"/>
+      <c r="AU33" s="9"/>
+      <c r="AV33" s="9">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AW33" s="11"/>
+      <c r="AX33" s="9"/>
+      <c r="AY33" s="9">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AZ33" s="11"/>
+      <c r="BA33" s="9"/>
+      <c r="BB33" s="9">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="BC33" s="11"/>
+      <c r="BD33" s="9"/>
+      <c r="BE33" s="9">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="BF33" s="11"/>
+      <c r="BG33" s="9"/>
+      <c r="BH33" s="9">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="BI33" s="11"/>
+      <c r="BJ33" s="9"/>
+      <c r="BK33" s="9">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="BL33" s="11"/>
+      <c r="BM33" s="9"/>
+      <c r="BN33" s="9">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="BO33" s="11"/>
+      <c r="BP33" s="12">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="BQ33" s="12">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:69" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="11"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="11"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="11"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="V34" s="11"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="9">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="9"/>
+      <c r="AD34" s="9">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AE34" s="11"/>
+      <c r="AF34" s="9"/>
+      <c r="AG34" s="9">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AH34" s="11"/>
+      <c r="AI34" s="9"/>
+      <c r="AJ34" s="9">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AK34" s="11"/>
+      <c r="AL34" s="9"/>
+      <c r="AM34" s="9">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AN34" s="11"/>
+      <c r="AO34" s="9"/>
+      <c r="AP34" s="9">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="11"/>
+      <c r="AR34" s="9"/>
+      <c r="AS34" s="9">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AT34" s="11"/>
+      <c r="AU34" s="9"/>
+      <c r="AV34" s="9">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AW34" s="11"/>
+      <c r="AX34" s="9"/>
+      <c r="AY34" s="9">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AZ34" s="11"/>
+      <c r="BA34" s="9"/>
+      <c r="BB34" s="9">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="BC34" s="11"/>
+      <c r="BD34" s="9"/>
+      <c r="BE34" s="9">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="BF34" s="11"/>
+      <c r="BG34" s="9"/>
+      <c r="BH34" s="9">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="BI34" s="11"/>
+      <c r="BJ34" s="9"/>
+      <c r="BK34" s="9">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="BL34" s="11"/>
+      <c r="BM34" s="9"/>
+      <c r="BN34" s="9">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="BO34" s="11"/>
+      <c r="BP34" s="12">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="BQ34" s="12">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="11"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="11"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="11"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="V35" s="11"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="9"/>
+      <c r="AA35" s="9">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="9"/>
+      <c r="AD35" s="9">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AE35" s="11"/>
+      <c r="AF35" s="9"/>
+      <c r="AG35" s="9">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AH35" s="11"/>
+      <c r="AI35" s="9"/>
+      <c r="AJ35" s="9">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AK35" s="11"/>
+      <c r="AL35" s="9"/>
+      <c r="AM35" s="9">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AN35" s="11"/>
+      <c r="AO35" s="9"/>
+      <c r="AP35" s="9">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AQ35" s="11"/>
+      <c r="AR35" s="9"/>
+      <c r="AS35" s="9">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AT35" s="11"/>
+      <c r="AU35" s="9"/>
+      <c r="AV35" s="9">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AW35" s="11"/>
+      <c r="AX35" s="9"/>
+      <c r="AY35" s="9">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AZ35" s="11"/>
+      <c r="BA35" s="9"/>
+      <c r="BB35" s="9">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="BC35" s="11"/>
+      <c r="BD35" s="9"/>
+      <c r="BE35" s="9">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="BF35" s="11"/>
+      <c r="BG35" s="9"/>
+      <c r="BH35" s="9">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="BI35" s="11"/>
+      <c r="BJ35" s="9"/>
+      <c r="BK35" s="9">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="BL35" s="11"/>
+      <c r="BM35" s="9"/>
+      <c r="BN35" s="9">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="BO35" s="11"/>
+      <c r="BP35" s="12">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="BQ35" s="12">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BJ4:BK4"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="BP4:BQ4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="BD4:BE4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -2718,24 +4051,14 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BJ4:BK4"/>
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="BP4:BQ4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="BD4:BE4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="69" orientation="landscape" r:id="rId1"/>
   <colBreaks count="4" manualBreakCount="4">
-    <brk id="21" max="18" man="1"/>
-    <brk id="36" max="18" man="1"/>
-    <brk id="52" max="18" man="1"/>
-    <brk id="69" max="18" man="1"/>
+    <brk id="21" max="92" man="1"/>
+    <brk id="36" max="92" man="1"/>
+    <brk id="52" max="92" man="1"/>
+    <brk id="69" max="92" man="1"/>
   </colBreaks>
 </worksheet>
 </file>
@@ -2759,12 +4082,12 @@
   <sheetData>
     <row r="1" spans="2:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -2781,7 +4104,7 @@
         <v>Identificador (ID) de item de product backlog</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="60" x14ac:dyDescent="0.25">
@@ -2790,71 +4113,71 @@
         <v>Enunciado del item de Product Backlog</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="75" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="75" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/scrum/PMOInformatica Plantilla de Sprint Backlog.xlsx
+++ b/scrum/PMOInformatica Plantilla de Sprint Backlog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\Telegram Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Proyectos\mypragmaticode\scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10215"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6060"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint Backlog" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$15</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sprint Backlog'!$A$1:$BR$93</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sprint Backlog'!$A$1:$BR$94</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Sprint Backlog'!$B:$F,'Sprint Backlog'!$1:$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="84">
   <si>
     <t>Columna</t>
   </si>
@@ -177,9 +177,6 @@
     <t>hu-4</t>
   </si>
   <si>
-    <t>hacer la base de datos</t>
-  </si>
-  <si>
     <t>realizar un formulario para crear las tareas</t>
   </si>
   <si>
@@ -250,6 +247,36 @@
   </si>
   <si>
     <t>desarrollar Testing</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Celedonio</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>desarrollar la base de datos</t>
+  </si>
+  <si>
+    <t>desarrollar la API rest para traer los datos</t>
+  </si>
+  <si>
+    <t>desarrollar una vista de las tareas</t>
+  </si>
+  <si>
+    <t>desarrollar las Pruebas Unitarias</t>
   </si>
 </sst>
 </file>
@@ -738,13 +765,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BQ35"/>
+  <dimension ref="B1:BQ36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="AT6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,7 +859,9 @@
       </c>
     </row>
     <row r="3" spans="2:69" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="4" spans="2:69" x14ac:dyDescent="0.25">
       <c r="H4" s="14" t="s">
@@ -1111,132 +1140,136 @@
         <v>46</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="G6" s="5">
+        <v>5</v>
+      </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9">
         <f>G6-H6</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9">
-        <f t="shared" ref="L6:L17" si="0">I6-K6</f>
-        <v>0</v>
+        <f t="shared" ref="L6:L18" si="0">I6-K6</f>
+        <v>5</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9">
-        <f t="shared" ref="O6:O17" si="1">L6-N6</f>
-        <v>0</v>
+        <f t="shared" ref="O6:O18" si="1">L6-N6</f>
+        <v>5</v>
       </c>
       <c r="P6" s="11"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="9">
-        <f t="shared" ref="R6:R17" si="2">O6-Q6</f>
-        <v>0</v>
+        <f t="shared" ref="R6:R18" si="2">O6-Q6</f>
+        <v>5</v>
       </c>
       <c r="S6" s="11"/>
       <c r="T6" s="9"/>
       <c r="U6" s="9">
-        <f t="shared" ref="U6:U17" si="3">R6-T6</f>
-        <v>0</v>
+        <f t="shared" ref="U6:U18" si="3">R6-T6</f>
+        <v>5</v>
       </c>
       <c r="V6" s="11"/>
       <c r="W6" s="9"/>
       <c r="X6" s="9">
-        <f t="shared" ref="X6:X17" si="4">U6-W6</f>
-        <v>0</v>
+        <f t="shared" ref="X6:X18" si="4">U6-W6</f>
+        <v>5</v>
       </c>
       <c r="Y6" s="11"/>
       <c r="Z6" s="9"/>
       <c r="AA6" s="9">
-        <f t="shared" ref="AA6:AA17" si="5">X6-Z6</f>
-        <v>0</v>
+        <f t="shared" ref="AA6:AA18" si="5">X6-Z6</f>
+        <v>5</v>
       </c>
       <c r="AB6" s="11"/>
       <c r="AC6" s="9"/>
       <c r="AD6" s="9">
-        <f t="shared" ref="AD6:AD17" si="6">AA6-AC6</f>
-        <v>0</v>
+        <f t="shared" ref="AD6:AD18" si="6">AA6-AC6</f>
+        <v>5</v>
       </c>
       <c r="AE6" s="11"/>
       <c r="AF6" s="9"/>
       <c r="AG6" s="9">
-        <f t="shared" ref="AG6:AG17" si="7">AD6-AF6</f>
-        <v>0</v>
+        <f t="shared" ref="AG6:AG18" si="7">AD6-AF6</f>
+        <v>5</v>
       </c>
       <c r="AH6" s="11"/>
       <c r="AI6" s="9"/>
       <c r="AJ6" s="9">
-        <f t="shared" ref="AJ6:AJ17" si="8">AG6-AI6</f>
-        <v>0</v>
+        <f t="shared" ref="AJ6:AJ18" si="8">AG6-AI6</f>
+        <v>5</v>
       </c>
       <c r="AK6" s="11"/>
       <c r="AL6" s="9"/>
       <c r="AM6" s="9">
-        <f t="shared" ref="AM6:AM17" si="9">AJ6-AL6</f>
-        <v>0</v>
+        <f t="shared" ref="AM6:AM18" si="9">AJ6-AL6</f>
+        <v>5</v>
       </c>
       <c r="AN6" s="11"/>
       <c r="AO6" s="9"/>
       <c r="AP6" s="9">
-        <f t="shared" ref="AP6:AP17" si="10">AM6-AO6</f>
-        <v>0</v>
+        <f t="shared" ref="AP6:AP18" si="10">AM6-AO6</f>
+        <v>5</v>
       </c>
       <c r="AQ6" s="11"/>
       <c r="AR6" s="9"/>
       <c r="AS6" s="9">
-        <f t="shared" ref="AS6:AS17" si="11">AP6-AR6</f>
-        <v>0</v>
+        <f t="shared" ref="AS6:AS18" si="11">AP6-AR6</f>
+        <v>5</v>
       </c>
       <c r="AT6" s="11"/>
       <c r="AU6" s="9"/>
       <c r="AV6" s="9">
-        <f t="shared" ref="AV6:AV17" si="12">AS6-AU6</f>
-        <v>0</v>
+        <f t="shared" ref="AV6:AV18" si="12">AS6-AU6</f>
+        <v>5</v>
       </c>
       <c r="AW6" s="11"/>
       <c r="AX6" s="9"/>
       <c r="AY6" s="9">
-        <f t="shared" ref="AY6:AY17" si="13">AV6-AX6</f>
-        <v>0</v>
+        <f t="shared" ref="AY6:AY18" si="13">AV6-AX6</f>
+        <v>5</v>
       </c>
       <c r="AZ6" s="11"/>
       <c r="BA6" s="9"/>
       <c r="BB6" s="9">
-        <f t="shared" ref="BB6:BB17" si="14">AY6-BA6</f>
-        <v>0</v>
+        <f t="shared" ref="BB6:BB18" si="14">AY6-BA6</f>
+        <v>5</v>
       </c>
       <c r="BC6" s="11"/>
       <c r="BD6" s="9"/>
       <c r="BE6" s="9">
-        <f t="shared" ref="BE6:BE17" si="15">BB6-BD6</f>
-        <v>0</v>
+        <f t="shared" ref="BE6:BE18" si="15">BB6-BD6</f>
+        <v>5</v>
       </c>
       <c r="BF6" s="11"/>
       <c r="BG6" s="9"/>
       <c r="BH6" s="9">
-        <f t="shared" ref="BH6:BH17" si="16">BE6-BG6</f>
-        <v>0</v>
+        <f t="shared" ref="BH6:BH18" si="16">BE6-BG6</f>
+        <v>5</v>
       </c>
       <c r="BI6" s="11"/>
       <c r="BJ6" s="9"/>
       <c r="BK6" s="9">
-        <f t="shared" ref="BK6:BK17" si="17">BH6-BJ6</f>
-        <v>0</v>
+        <f t="shared" ref="BK6:BK18" si="17">BH6-BJ6</f>
+        <v>5</v>
       </c>
       <c r="BL6" s="11"/>
       <c r="BM6" s="9"/>
       <c r="BN6" s="9">
         <f>BK6-BM6</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BO6" s="11"/>
       <c r="BP6" s="12">
@@ -1245,274 +1278,282 @@
       </c>
       <c r="BQ6" s="12">
         <f>G6-BP6</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:69" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="G7" s="5">
+        <v>5</v>
+      </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9">
-        <f t="shared" ref="I7:I17" si="18">G7-H7</f>
-        <v>0</v>
+        <f t="shared" ref="I7:I18" si="18">G7-H7</f>
+        <v>5</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P7" s="11"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S7" s="11"/>
       <c r="T7" s="9"/>
       <c r="U7" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V7" s="11"/>
       <c r="W7" s="9"/>
       <c r="X7" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y7" s="11"/>
       <c r="Z7" s="9"/>
       <c r="AA7" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB7" s="11"/>
       <c r="AC7" s="9"/>
       <c r="AD7" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE7" s="11"/>
       <c r="AF7" s="9"/>
       <c r="AG7" s="9">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH7" s="11"/>
       <c r="AI7" s="9"/>
       <c r="AJ7" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AK7" s="11"/>
       <c r="AL7" s="9"/>
       <c r="AM7" s="9">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN7" s="11"/>
       <c r="AO7" s="9"/>
       <c r="AP7" s="9">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AQ7" s="11"/>
       <c r="AR7" s="9"/>
       <c r="AS7" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AT7" s="11"/>
       <c r="AU7" s="9"/>
       <c r="AV7" s="9">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW7" s="11"/>
       <c r="AX7" s="9"/>
       <c r="AY7" s="9">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AZ7" s="11"/>
       <c r="BA7" s="9"/>
       <c r="BB7" s="9">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BC7" s="11"/>
       <c r="BD7" s="9"/>
       <c r="BE7" s="9">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BF7" s="11"/>
       <c r="BG7" s="9"/>
       <c r="BH7" s="9">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BI7" s="11"/>
       <c r="BJ7" s="9"/>
       <c r="BK7" s="9">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BL7" s="11"/>
       <c r="BM7" s="9"/>
       <c r="BN7" s="9">
-        <f t="shared" ref="BN7:BN17" si="19">BK7-BM7</f>
-        <v>0</v>
+        <f t="shared" ref="BN7:BN18" si="19">BK7-BM7</f>
+        <v>5</v>
       </c>
       <c r="BO7" s="11"/>
       <c r="BP7" s="12">
-        <f t="shared" ref="BP7:BP17" si="20">H7+K7+N7+Q7+T7+W7+Z7+AC7+AF7+AI7+AL7+AO7+AR7+AU7+AX7+BA7+BD7+BG7+BJ7+BM7</f>
+        <f t="shared" ref="BP7:BP18" si="20">H7+K7+N7+Q7+T7+W7+Z7+AC7+AF7+AI7+AL7+AO7+AR7+AU7+AX7+BA7+BD7+BG7+BJ7+BM7</f>
         <v>0</v>
       </c>
       <c r="BQ7" s="12">
-        <f t="shared" ref="BQ7:BQ17" si="21">G7-BP7</f>
-        <v>0</v>
+        <f t="shared" ref="BQ7:BQ18" si="21">G7-BP7</f>
+        <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:69" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:69" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="G8" s="5">
+        <v>5</v>
+      </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P8" s="11"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S8" s="11"/>
       <c r="T8" s="9"/>
       <c r="U8" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V8" s="11"/>
       <c r="W8" s="9"/>
       <c r="X8" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y8" s="11"/>
       <c r="Z8" s="9"/>
       <c r="AA8" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB8" s="11"/>
       <c r="AC8" s="9"/>
       <c r="AD8" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE8" s="11"/>
       <c r="AF8" s="9"/>
       <c r="AG8" s="9">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH8" s="11"/>
       <c r="AI8" s="9"/>
       <c r="AJ8" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AK8" s="11"/>
       <c r="AL8" s="9"/>
       <c r="AM8" s="9">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN8" s="11"/>
       <c r="AO8" s="9"/>
       <c r="AP8" s="9">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AQ8" s="11"/>
       <c r="AR8" s="9"/>
       <c r="AS8" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AT8" s="11"/>
       <c r="AU8" s="9"/>
       <c r="AV8" s="9">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW8" s="11"/>
       <c r="AX8" s="9"/>
       <c r="AY8" s="9">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AZ8" s="11"/>
       <c r="BA8" s="9"/>
       <c r="BB8" s="9">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BC8" s="11"/>
       <c r="BD8" s="9"/>
       <c r="BE8" s="9">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BF8" s="11"/>
       <c r="BG8" s="9"/>
       <c r="BH8" s="9">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BI8" s="11"/>
       <c r="BJ8" s="9"/>
       <c r="BK8" s="9">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BL8" s="11"/>
       <c r="BM8" s="9"/>
       <c r="BN8" s="9">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BO8" s="11"/>
       <c r="BP8" s="12">
@@ -1521,296 +1562,311 @@
       </c>
       <c r="BQ8" s="12">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:69" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>53</v>
-      </c>
+    <row r="9" spans="2:69" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5">
+        <v>3</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9">
+        <f t="shared" ref="I9" si="22">G9-H9</f>
+        <v>3</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9">
+        <f t="shared" ref="L9" si="23">I9-K9</f>
+        <v>3</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9">
+        <f t="shared" ref="O9" si="24">L9-N9</f>
+        <v>3</v>
+      </c>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9">
+        <f t="shared" ref="R9" si="25">O9-Q9</f>
+        <v>3</v>
+      </c>
+      <c r="S9" s="11"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9">
+        <f t="shared" ref="U9" si="26">R9-T9</f>
+        <v>3</v>
+      </c>
+      <c r="V9" s="11"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9">
+        <f t="shared" ref="X9" si="27">U9-W9</f>
+        <v>3</v>
+      </c>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9">
+        <f t="shared" ref="AA9" si="28">X9-Z9</f>
+        <v>3</v>
+      </c>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9">
+        <f t="shared" ref="AD9" si="29">AA9-AC9</f>
+        <v>3</v>
+      </c>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9">
+        <f t="shared" ref="AG9" si="30">AD9-AF9</f>
+        <v>3</v>
+      </c>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="9">
+        <f t="shared" ref="AJ9" si="31">AG9-AI9</f>
+        <v>3</v>
+      </c>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="9">
+        <f t="shared" ref="AM9" si="32">AJ9-AL9</f>
+        <v>3</v>
+      </c>
+      <c r="AN9" s="11"/>
+      <c r="AO9" s="9"/>
+      <c r="AP9" s="9">
+        <f t="shared" ref="AP9" si="33">AM9-AO9</f>
+        <v>3</v>
+      </c>
+      <c r="AQ9" s="11"/>
+      <c r="AR9" s="9"/>
+      <c r="AS9" s="9">
+        <f t="shared" ref="AS9" si="34">AP9-AR9</f>
+        <v>3</v>
+      </c>
+      <c r="AT9" s="11"/>
+      <c r="AU9" s="9"/>
+      <c r="AV9" s="9">
+        <f t="shared" ref="AV9" si="35">AS9-AU9</f>
+        <v>3</v>
+      </c>
+      <c r="AW9" s="11"/>
+      <c r="AX9" s="9"/>
+      <c r="AY9" s="9">
+        <f t="shared" ref="AY9" si="36">AV9-AX9</f>
+        <v>3</v>
+      </c>
+      <c r="AZ9" s="11"/>
+      <c r="BA9" s="9"/>
+      <c r="BB9" s="9">
+        <f t="shared" ref="BB9" si="37">AY9-BA9</f>
+        <v>3</v>
+      </c>
+      <c r="BC9" s="11"/>
+      <c r="BD9" s="9"/>
+      <c r="BE9" s="9">
+        <f t="shared" ref="BE9" si="38">BB9-BD9</f>
+        <v>3</v>
+      </c>
+      <c r="BF9" s="11"/>
+      <c r="BG9" s="9"/>
+      <c r="BH9" s="9">
+        <f t="shared" ref="BH9" si="39">BE9-BG9</f>
+        <v>3</v>
+      </c>
+      <c r="BI9" s="11"/>
+      <c r="BJ9" s="9"/>
+      <c r="BK9" s="9">
+        <f t="shared" ref="BK9" si="40">BH9-BJ9</f>
+        <v>3</v>
+      </c>
+      <c r="BL9" s="11"/>
+      <c r="BM9" s="9"/>
+      <c r="BN9" s="9">
+        <f t="shared" ref="BN9" si="41">BK9-BM9</f>
+        <v>3</v>
+      </c>
+      <c r="BO9" s="11"/>
+      <c r="BP9" s="12">
+        <f t="shared" ref="BP9" si="42">H9+K9+N9+Q9+T9+W9+Z9+AC9+AF9+AI9+AL9+AO9+AR9+AU9+AX9+BA9+BD9+BG9+BJ9+BM9</f>
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="12">
+        <f t="shared" ref="BQ9" si="43">G9-BP9</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:69" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="5"/>
+        <v>83</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="G10" s="5">
+        <v>10</v>
+      </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" ref="I10" si="44">G10-H10</f>
+        <v>10</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="L10" si="45">I10-K10</f>
+        <v>10</v>
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="O10" si="46">L10-N10</f>
+        <v>10</v>
       </c>
       <c r="P10" s="11"/>
       <c r="Q10" s="9"/>
       <c r="R10" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="R10" si="47">O10-Q10</f>
+        <v>10</v>
       </c>
       <c r="S10" s="11"/>
       <c r="T10" s="9"/>
       <c r="U10" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="U10" si="48">R10-T10</f>
+        <v>10</v>
       </c>
       <c r="V10" s="11"/>
       <c r="W10" s="9"/>
       <c r="X10" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ref="X10" si="49">U10-W10</f>
+        <v>10</v>
       </c>
       <c r="Y10" s="11"/>
       <c r="Z10" s="9"/>
       <c r="AA10" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" ref="AA10" si="50">X10-Z10</f>
+        <v>10</v>
       </c>
       <c r="AB10" s="11"/>
       <c r="AC10" s="9"/>
       <c r="AD10" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" ref="AD10" si="51">AA10-AC10</f>
+        <v>10</v>
       </c>
       <c r="AE10" s="11"/>
       <c r="AF10" s="9"/>
       <c r="AG10" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" ref="AG10" si="52">AD10-AF10</f>
+        <v>10</v>
       </c>
       <c r="AH10" s="11"/>
       <c r="AI10" s="9"/>
       <c r="AJ10" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" ref="AJ10" si="53">AG10-AI10</f>
+        <v>10</v>
       </c>
       <c r="AK10" s="11"/>
       <c r="AL10" s="9"/>
       <c r="AM10" s="9">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" ref="AM10" si="54">AJ10-AL10</f>
+        <v>10</v>
       </c>
       <c r="AN10" s="11"/>
       <c r="AO10" s="9"/>
       <c r="AP10" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" ref="AP10" si="55">AM10-AO10</f>
+        <v>10</v>
       </c>
       <c r="AQ10" s="11"/>
       <c r="AR10" s="9"/>
       <c r="AS10" s="9">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" ref="AS10" si="56">AP10-AR10</f>
+        <v>10</v>
       </c>
       <c r="AT10" s="11"/>
       <c r="AU10" s="9"/>
       <c r="AV10" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" ref="AV10" si="57">AS10-AU10</f>
+        <v>10</v>
       </c>
       <c r="AW10" s="11"/>
       <c r="AX10" s="9"/>
       <c r="AY10" s="9">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" ref="AY10" si="58">AV10-AX10</f>
+        <v>10</v>
       </c>
       <c r="AZ10" s="11"/>
       <c r="BA10" s="9"/>
       <c r="BB10" s="9">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" ref="BB10" si="59">AY10-BA10</f>
+        <v>10</v>
       </c>
       <c r="BC10" s="11"/>
       <c r="BD10" s="9"/>
       <c r="BE10" s="9">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" ref="BE10" si="60">BB10-BD10</f>
+        <v>10</v>
       </c>
       <c r="BF10" s="11"/>
       <c r="BG10" s="9"/>
       <c r="BH10" s="9">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" ref="BH10" si="61">BE10-BG10</f>
+        <v>10</v>
       </c>
       <c r="BI10" s="11"/>
       <c r="BJ10" s="9"/>
       <c r="BK10" s="9">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" ref="BK10" si="62">BH10-BJ10</f>
+        <v>10</v>
       </c>
       <c r="BL10" s="11"/>
       <c r="BM10" s="9"/>
       <c r="BN10" s="9">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" ref="BN10" si="63">BK10-BM10</f>
+        <v>10</v>
       </c>
       <c r="BO10" s="11"/>
       <c r="BP10" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="BP10" si="64">H10+K10+N10+Q10+T10+W10+Z10+AC10+AF10+AI10+AL10+AO10+AR10+AU10+AX10+BA10+BD10+BG10+BJ10+BM10</f>
         <v>0</v>
       </c>
       <c r="BQ10" s="12">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" ref="BQ10" si="65">G10-BP10</f>
+        <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="11"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="11"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V11" s="11"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="9"/>
-      <c r="AG11" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH11" s="11"/>
-      <c r="AI11" s="9"/>
-      <c r="AJ11" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AK11" s="11"/>
-      <c r="AL11" s="9"/>
-      <c r="AM11" s="9">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN11" s="11"/>
-      <c r="AO11" s="9"/>
-      <c r="AP11" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="11"/>
-      <c r="AR11" s="9"/>
-      <c r="AS11" s="9">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AT11" s="11"/>
-      <c r="AU11" s="9"/>
-      <c r="AV11" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AW11" s="11"/>
-      <c r="AX11" s="9"/>
-      <c r="AY11" s="9">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AZ11" s="11"/>
-      <c r="BA11" s="9"/>
-      <c r="BB11" s="9">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BC11" s="11"/>
-      <c r="BD11" s="9"/>
-      <c r="BE11" s="9">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="BF11" s="11"/>
-      <c r="BG11" s="9"/>
-      <c r="BH11" s="9">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="BI11" s="11"/>
-      <c r="BJ11" s="9"/>
-      <c r="BK11" s="9">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BL11" s="11"/>
-      <c r="BM11" s="9"/>
-      <c r="BN11" s="9">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BO11" s="11"/>
-      <c r="BP11" s="12">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="BQ11" s="12">
-        <f t="shared" si="21"/>
-        <v>0</v>
+    <row r="11" spans="2:69" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="2:69" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="D12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="9"/>
@@ -1942,153 +1998,155 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:69" ht="60" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
+    <row r="13" spans="2:69" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="11"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="11"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="11"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="9"/>
+      <c r="AM13" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN13" s="11"/>
+      <c r="AO13" s="9"/>
+      <c r="AP13" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="11"/>
+      <c r="AR13" s="9"/>
+      <c r="AS13" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AT13" s="11"/>
+      <c r="AU13" s="9"/>
+      <c r="AV13" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AW13" s="11"/>
+      <c r="AX13" s="9"/>
+      <c r="AY13" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="11"/>
+      <c r="BA13" s="9"/>
+      <c r="BB13" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BC13" s="11"/>
+      <c r="BD13" s="9"/>
+      <c r="BE13" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BF13" s="11"/>
+      <c r="BG13" s="9"/>
+      <c r="BH13" s="9">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BI13" s="11"/>
+      <c r="BJ13" s="9"/>
+      <c r="BK13" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BL13" s="11"/>
+      <c r="BM13" s="9"/>
+      <c r="BN13" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BO13" s="11"/>
+      <c r="BP13" s="12">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BQ13" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:69" ht="60" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="11"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="11"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="11"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="11"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH14" s="11"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AK14" s="11"/>
-      <c r="AL14" s="9"/>
-      <c r="AM14" s="9">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN14" s="11"/>
-      <c r="AO14" s="9"/>
-      <c r="AP14" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AQ14" s="11"/>
-      <c r="AR14" s="9"/>
-      <c r="AS14" s="9">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AT14" s="11"/>
-      <c r="AU14" s="9"/>
-      <c r="AV14" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AW14" s="11"/>
-      <c r="AX14" s="9"/>
-      <c r="AY14" s="9">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AZ14" s="11"/>
-      <c r="BA14" s="9"/>
-      <c r="BB14" s="9">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BC14" s="11"/>
-      <c r="BD14" s="9"/>
-      <c r="BE14" s="9">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="BF14" s="11"/>
-      <c r="BG14" s="9"/>
-      <c r="BH14" s="9">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="BI14" s="11"/>
-      <c r="BJ14" s="9"/>
-      <c r="BK14" s="9">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BL14" s="11"/>
-      <c r="BM14" s="9"/>
-      <c r="BN14" s="9">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BO14" s="11"/>
-      <c r="BP14" s="12">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="BQ14" s="12">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -2222,11 +2280,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:69" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -2364,7 +2422,7 @@
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -2498,421 +2556,426 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:69" ht="60" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
+    <row r="18" spans="2:69" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="11"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="11"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="11"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="11"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="9"/>
+      <c r="AJ18" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AK18" s="11"/>
+      <c r="AL18" s="9"/>
+      <c r="AM18" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN18" s="11"/>
+      <c r="AO18" s="9"/>
+      <c r="AP18" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="11"/>
+      <c r="AR18" s="9"/>
+      <c r="AS18" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AT18" s="11"/>
+      <c r="AU18" s="9"/>
+      <c r="AV18" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AW18" s="11"/>
+      <c r="AX18" s="9"/>
+      <c r="AY18" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="11"/>
+      <c r="BA18" s="9"/>
+      <c r="BB18" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BC18" s="11"/>
+      <c r="BD18" s="9"/>
+      <c r="BE18" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BF18" s="11"/>
+      <c r="BG18" s="9"/>
+      <c r="BH18" s="9">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BI18" s="11"/>
+      <c r="BJ18" s="9"/>
+      <c r="BK18" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BL18" s="11"/>
+      <c r="BM18" s="9"/>
+      <c r="BN18" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BO18" s="11"/>
+      <c r="BP18" s="12">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BQ18" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:69" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="2:69" ht="60" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9">
-        <f t="shared" ref="I20:I23" si="22">G20-H20</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="11"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9">
-        <f t="shared" ref="L20:L23" si="23">I20-K20</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="11"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9">
-        <f t="shared" ref="O20:O23" si="24">L20-N20</f>
-        <v>0</v>
-      </c>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9">
-        <f t="shared" ref="R20:R23" si="25">O20-Q20</f>
-        <v>0</v>
-      </c>
-      <c r="S20" s="11"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9">
-        <f t="shared" ref="U20:U23" si="26">R20-T20</f>
-        <v>0</v>
-      </c>
-      <c r="V20" s="11"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9">
-        <f t="shared" ref="X20:X23" si="27">U20-W20</f>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9">
-        <f t="shared" ref="AA20:AA23" si="28">X20-Z20</f>
-        <v>0</v>
-      </c>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="9">
-        <f t="shared" ref="AD20:AD23" si="29">AA20-AC20</f>
-        <v>0</v>
-      </c>
-      <c r="AE20" s="11"/>
-      <c r="AF20" s="9"/>
-      <c r="AG20" s="9">
-        <f t="shared" ref="AG20:AG23" si="30">AD20-AF20</f>
-        <v>0</v>
-      </c>
-      <c r="AH20" s="11"/>
-      <c r="AI20" s="9"/>
-      <c r="AJ20" s="9">
-        <f t="shared" ref="AJ20:AJ23" si="31">AG20-AI20</f>
-        <v>0</v>
-      </c>
-      <c r="AK20" s="11"/>
-      <c r="AL20" s="9"/>
-      <c r="AM20" s="9">
-        <f t="shared" ref="AM20:AM23" si="32">AJ20-AL20</f>
-        <v>0</v>
-      </c>
-      <c r="AN20" s="11"/>
-      <c r="AO20" s="9"/>
-      <c r="AP20" s="9">
-        <f t="shared" ref="AP20:AP23" si="33">AM20-AO20</f>
-        <v>0</v>
-      </c>
-      <c r="AQ20" s="11"/>
-      <c r="AR20" s="9"/>
-      <c r="AS20" s="9">
-        <f t="shared" ref="AS20:AS23" si="34">AP20-AR20</f>
-        <v>0</v>
-      </c>
-      <c r="AT20" s="11"/>
-      <c r="AU20" s="9"/>
-      <c r="AV20" s="9">
-        <f t="shared" ref="AV20:AV23" si="35">AS20-AU20</f>
-        <v>0</v>
-      </c>
-      <c r="AW20" s="11"/>
-      <c r="AX20" s="9"/>
-      <c r="AY20" s="9">
-        <f t="shared" ref="AY20:AY23" si="36">AV20-AX20</f>
-        <v>0</v>
-      </c>
-      <c r="AZ20" s="11"/>
-      <c r="BA20" s="9"/>
-      <c r="BB20" s="9">
-        <f t="shared" ref="BB20:BB23" si="37">AY20-BA20</f>
-        <v>0</v>
-      </c>
-      <c r="BC20" s="11"/>
-      <c r="BD20" s="9"/>
-      <c r="BE20" s="9">
-        <f t="shared" ref="BE20:BE23" si="38">BB20-BD20</f>
-        <v>0</v>
-      </c>
-      <c r="BF20" s="11"/>
-      <c r="BG20" s="9"/>
-      <c r="BH20" s="9">
-        <f t="shared" ref="BH20:BH23" si="39">BE20-BG20</f>
-        <v>0</v>
-      </c>
-      <c r="BI20" s="11"/>
-      <c r="BJ20" s="9"/>
-      <c r="BK20" s="9">
-        <f t="shared" ref="BK20:BK23" si="40">BH20-BJ20</f>
-        <v>0</v>
-      </c>
-      <c r="BL20" s="11"/>
-      <c r="BM20" s="9"/>
-      <c r="BN20" s="9">
-        <f t="shared" ref="BN20:BN23" si="41">BK20-BM20</f>
-        <v>0</v>
-      </c>
-      <c r="BO20" s="11"/>
-      <c r="BP20" s="12">
-        <f t="shared" ref="BP20:BP23" si="42">H20+K20+N20+Q20+T20+W20+Z20+AC20+AF20+AI20+AL20+AO20+AR20+AU20+AX20+BA20+BD20+BG20+BJ20+BM20</f>
-        <v>0</v>
-      </c>
-      <c r="BQ20" s="12">
-        <f t="shared" ref="BQ20:BQ23" si="43">G20-BP20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="I21:I24" si="66">G21-H21</f>
         <v>0</v>
       </c>
       <c r="J21" s="11"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="L21:L24" si="67">I21-K21</f>
         <v>0</v>
       </c>
       <c r="M21" s="11"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="O21:O24" si="68">L21-N21</f>
         <v>0</v>
       </c>
       <c r="P21" s="11"/>
       <c r="Q21" s="9"/>
       <c r="R21" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="R21:R24" si="69">O21-Q21</f>
         <v>0</v>
       </c>
       <c r="S21" s="11"/>
       <c r="T21" s="9"/>
       <c r="U21" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="U21:U24" si="70">R21-T21</f>
         <v>0</v>
       </c>
       <c r="V21" s="11"/>
       <c r="W21" s="9"/>
       <c r="X21" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="X21:X24" si="71">U21-W21</f>
         <v>0</v>
       </c>
       <c r="Y21" s="11"/>
       <c r="Z21" s="9"/>
       <c r="AA21" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="AA21:AA24" si="72">X21-Z21</f>
         <v>0</v>
       </c>
       <c r="AB21" s="11"/>
       <c r="AC21" s="9"/>
       <c r="AD21" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="AD21:AD24" si="73">AA21-AC21</f>
         <v>0</v>
       </c>
       <c r="AE21" s="11"/>
       <c r="AF21" s="9"/>
       <c r="AG21" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="AG21:AG24" si="74">AD21-AF21</f>
         <v>0</v>
       </c>
       <c r="AH21" s="11"/>
       <c r="AI21" s="9"/>
       <c r="AJ21" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="AJ21:AJ24" si="75">AG21-AI21</f>
         <v>0</v>
       </c>
       <c r="AK21" s="11"/>
       <c r="AL21" s="9"/>
       <c r="AM21" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="AM21:AM24" si="76">AJ21-AL21</f>
         <v>0</v>
       </c>
       <c r="AN21" s="11"/>
       <c r="AO21" s="9"/>
       <c r="AP21" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="AP21:AP24" si="77">AM21-AO21</f>
         <v>0</v>
       </c>
       <c r="AQ21" s="11"/>
       <c r="AR21" s="9"/>
       <c r="AS21" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="AS21:AS24" si="78">AP21-AR21</f>
         <v>0</v>
       </c>
       <c r="AT21" s="11"/>
       <c r="AU21" s="9"/>
       <c r="AV21" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="AV21:AV24" si="79">AS21-AU21</f>
         <v>0</v>
       </c>
       <c r="AW21" s="11"/>
       <c r="AX21" s="9"/>
       <c r="AY21" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="AY21:AY24" si="80">AV21-AX21</f>
         <v>0</v>
       </c>
       <c r="AZ21" s="11"/>
       <c r="BA21" s="9"/>
       <c r="BB21" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="BB21:BB24" si="81">AY21-BA21</f>
         <v>0</v>
       </c>
       <c r="BC21" s="11"/>
       <c r="BD21" s="9"/>
       <c r="BE21" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="BE21:BE24" si="82">BB21-BD21</f>
         <v>0</v>
       </c>
       <c r="BF21" s="11"/>
       <c r="BG21" s="9"/>
       <c r="BH21" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="BH21:BH24" si="83">BE21-BG21</f>
         <v>0</v>
       </c>
       <c r="BI21" s="11"/>
       <c r="BJ21" s="9"/>
       <c r="BK21" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="BK21:BK24" si="84">BH21-BJ21</f>
         <v>0</v>
       </c>
       <c r="BL21" s="11"/>
       <c r="BM21" s="9"/>
       <c r="BN21" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="BN21:BN24" si="85">BK21-BM21</f>
         <v>0</v>
       </c>
       <c r="BO21" s="11"/>
       <c r="BP21" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="BP21:BP24" si="86">H21+K21+N21+Q21+T21+W21+Z21+AC21+AF21+AI21+AL21+AO21+AR21+AU21+AX21+BA21+BD21+BG21+BJ21+BM21</f>
         <v>0</v>
       </c>
       <c r="BQ21" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="BQ21:BQ24" si="87">G21-BP21</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:69" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="J22" s="11"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="M22" s="11"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="P22" s="11"/>
       <c r="Q22" s="9"/>
       <c r="R22" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="S22" s="11"/>
       <c r="T22" s="9"/>
       <c r="U22" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="V22" s="11"/>
       <c r="W22" s="9"/>
       <c r="X22" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="Y22" s="11"/>
       <c r="Z22" s="9"/>
       <c r="AA22" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="AB22" s="11"/>
       <c r="AC22" s="9"/>
       <c r="AD22" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="AE22" s="11"/>
       <c r="AF22" s="9"/>
       <c r="AG22" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="AH22" s="11"/>
       <c r="AI22" s="9"/>
       <c r="AJ22" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="AK22" s="11"/>
       <c r="AL22" s="9"/>
       <c r="AM22" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="AN22" s="11"/>
       <c r="AO22" s="9"/>
       <c r="AP22" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="AQ22" s="11"/>
       <c r="AR22" s="9"/>
       <c r="AS22" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="AT22" s="11"/>
       <c r="AU22" s="9"/>
       <c r="AV22" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="AW22" s="11"/>
       <c r="AX22" s="9"/>
       <c r="AY22" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="AZ22" s="11"/>
       <c r="BA22" s="9"/>
       <c r="BB22" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="BC22" s="11"/>
       <c r="BD22" s="9"/>
       <c r="BE22" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="BF22" s="11"/>
       <c r="BG22" s="9"/>
       <c r="BH22" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="BI22" s="11"/>
       <c r="BJ22" s="9"/>
       <c r="BK22" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="BL22" s="11"/>
       <c r="BM22" s="9"/>
       <c r="BN22" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="BO22" s="11"/>
       <c r="BP22" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="BQ22" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
     </row>
@@ -2927,410 +2990,410 @@
       <c r="G23" s="5"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="J23" s="11"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="M23" s="11"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="P23" s="11"/>
       <c r="Q23" s="9"/>
       <c r="R23" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="S23" s="11"/>
       <c r="T23" s="9"/>
       <c r="U23" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="V23" s="11"/>
       <c r="W23" s="9"/>
       <c r="X23" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="Y23" s="11"/>
       <c r="Z23" s="9"/>
       <c r="AA23" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="AB23" s="11"/>
       <c r="AC23" s="9"/>
       <c r="AD23" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="AE23" s="11"/>
       <c r="AF23" s="9"/>
       <c r="AG23" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="AH23" s="11"/>
       <c r="AI23" s="9"/>
       <c r="AJ23" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="AK23" s="11"/>
       <c r="AL23" s="9"/>
       <c r="AM23" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="AN23" s="11"/>
       <c r="AO23" s="9"/>
       <c r="AP23" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="AQ23" s="11"/>
       <c r="AR23" s="9"/>
       <c r="AS23" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="AT23" s="11"/>
       <c r="AU23" s="9"/>
       <c r="AV23" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="AW23" s="11"/>
       <c r="AX23" s="9"/>
       <c r="AY23" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="AZ23" s="11"/>
       <c r="BA23" s="9"/>
       <c r="BB23" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="BC23" s="11"/>
       <c r="BD23" s="9"/>
       <c r="BE23" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="BF23" s="11"/>
       <c r="BG23" s="9"/>
       <c r="BH23" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="BI23" s="11"/>
       <c r="BJ23" s="9"/>
       <c r="BK23" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="BL23" s="11"/>
       <c r="BM23" s="9"/>
       <c r="BN23" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="BO23" s="11"/>
       <c r="BP23" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="BQ23" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:69" ht="60" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
+    <row r="24" spans="2:69" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="11"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="11"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="11"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="V24" s="11"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="9">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AE24" s="11"/>
+      <c r="AF24" s="9"/>
+      <c r="AG24" s="9">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AH24" s="11"/>
+      <c r="AI24" s="9"/>
+      <c r="AJ24" s="9">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AK24" s="11"/>
+      <c r="AL24" s="9"/>
+      <c r="AM24" s="9">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AN24" s="11"/>
+      <c r="AO24" s="9"/>
+      <c r="AP24" s="9">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="11"/>
+      <c r="AR24" s="9"/>
+      <c r="AS24" s="9">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AT24" s="11"/>
+      <c r="AU24" s="9"/>
+      <c r="AV24" s="9">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AW24" s="11"/>
+      <c r="AX24" s="9"/>
+      <c r="AY24" s="9">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AZ24" s="11"/>
+      <c r="BA24" s="9"/>
+      <c r="BB24" s="9">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="BC24" s="11"/>
+      <c r="BD24" s="9"/>
+      <c r="BE24" s="9">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="BF24" s="11"/>
+      <c r="BG24" s="9"/>
+      <c r="BH24" s="9">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="BI24" s="11"/>
+      <c r="BJ24" s="9"/>
+      <c r="BK24" s="9">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="BL24" s="11"/>
+      <c r="BM24" s="9"/>
+      <c r="BN24" s="9">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="BO24" s="11"/>
+      <c r="BP24" s="12">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="BQ24" s="12">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:69" ht="60" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9">
-        <f t="shared" ref="I26:I28" si="44">G26-H26</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="11"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9">
-        <f t="shared" ref="L26:L28" si="45">I26-K26</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="11"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9">
-        <f t="shared" ref="O26:O28" si="46">L26-N26</f>
-        <v>0</v>
-      </c>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9">
-        <f t="shared" ref="R26:R28" si="47">O26-Q26</f>
-        <v>0</v>
-      </c>
-      <c r="S26" s="11"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9">
-        <f t="shared" ref="U26:U28" si="48">R26-T26</f>
-        <v>0</v>
-      </c>
-      <c r="V26" s="11"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9">
-        <f t="shared" ref="X26:X28" si="49">U26-W26</f>
-        <v>0</v>
-      </c>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="9">
-        <f t="shared" ref="AA26:AA28" si="50">X26-Z26</f>
-        <v>0</v>
-      </c>
-      <c r="AB26" s="11"/>
-      <c r="AC26" s="9"/>
-      <c r="AD26" s="9">
-        <f t="shared" ref="AD26:AD28" si="51">AA26-AC26</f>
-        <v>0</v>
-      </c>
-      <c r="AE26" s="11"/>
-      <c r="AF26" s="9"/>
-      <c r="AG26" s="9">
-        <f t="shared" ref="AG26:AG28" si="52">AD26-AF26</f>
-        <v>0</v>
-      </c>
-      <c r="AH26" s="11"/>
-      <c r="AI26" s="9"/>
-      <c r="AJ26" s="9">
-        <f t="shared" ref="AJ26:AJ28" si="53">AG26-AI26</f>
-        <v>0</v>
-      </c>
-      <c r="AK26" s="11"/>
-      <c r="AL26" s="9"/>
-      <c r="AM26" s="9">
-        <f t="shared" ref="AM26:AM28" si="54">AJ26-AL26</f>
-        <v>0</v>
-      </c>
-      <c r="AN26" s="11"/>
-      <c r="AO26" s="9"/>
-      <c r="AP26" s="9">
-        <f t="shared" ref="AP26:AP28" si="55">AM26-AO26</f>
-        <v>0</v>
-      </c>
-      <c r="AQ26" s="11"/>
-      <c r="AR26" s="9"/>
-      <c r="AS26" s="9">
-        <f t="shared" ref="AS26:AS28" si="56">AP26-AR26</f>
-        <v>0</v>
-      </c>
-      <c r="AT26" s="11"/>
-      <c r="AU26" s="9"/>
-      <c r="AV26" s="9">
-        <f t="shared" ref="AV26:AV28" si="57">AS26-AU26</f>
-        <v>0</v>
-      </c>
-      <c r="AW26" s="11"/>
-      <c r="AX26" s="9"/>
-      <c r="AY26" s="9">
-        <f t="shared" ref="AY26:AY28" si="58">AV26-AX26</f>
-        <v>0</v>
-      </c>
-      <c r="AZ26" s="11"/>
-      <c r="BA26" s="9"/>
-      <c r="BB26" s="9">
-        <f t="shared" ref="BB26:BB28" si="59">AY26-BA26</f>
-        <v>0</v>
-      </c>
-      <c r="BC26" s="11"/>
-      <c r="BD26" s="9"/>
-      <c r="BE26" s="9">
-        <f t="shared" ref="BE26:BE28" si="60">BB26-BD26</f>
-        <v>0</v>
-      </c>
-      <c r="BF26" s="11"/>
-      <c r="BG26" s="9"/>
-      <c r="BH26" s="9">
-        <f t="shared" ref="BH26:BH28" si="61">BE26-BG26</f>
-        <v>0</v>
-      </c>
-      <c r="BI26" s="11"/>
-      <c r="BJ26" s="9"/>
-      <c r="BK26" s="9">
-        <f t="shared" ref="BK26:BK28" si="62">BH26-BJ26</f>
-        <v>0</v>
-      </c>
-      <c r="BL26" s="11"/>
-      <c r="BM26" s="9"/>
-      <c r="BN26" s="9">
-        <f t="shared" ref="BN26:BN28" si="63">BK26-BM26</f>
-        <v>0</v>
-      </c>
-      <c r="BO26" s="11"/>
-      <c r="BP26" s="12">
-        <f t="shared" ref="BP26:BP28" si="64">H26+K26+N26+Q26+T26+W26+Z26+AC26+AF26+AI26+AL26+AO26+AR26+AU26+AX26+BA26+BD26+BG26+BJ26+BM26</f>
-        <v>0</v>
-      </c>
-      <c r="BQ26" s="12">
-        <f t="shared" ref="BQ26:BQ28" si="65">G26-BP26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:69" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="I27:I29" si="88">G27-H27</f>
         <v>0</v>
       </c>
       <c r="J27" s="11"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="L27:L29" si="89">I27-K27</f>
         <v>0</v>
       </c>
       <c r="M27" s="11"/>
       <c r="N27" s="9"/>
       <c r="O27" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="O27:O29" si="90">L27-N27</f>
         <v>0</v>
       </c>
       <c r="P27" s="11"/>
       <c r="Q27" s="9"/>
       <c r="R27" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="R27:R29" si="91">O27-Q27</f>
         <v>0</v>
       </c>
       <c r="S27" s="11"/>
       <c r="T27" s="9"/>
       <c r="U27" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" ref="U27:U29" si="92">R27-T27</f>
         <v>0</v>
       </c>
       <c r="V27" s="11"/>
       <c r="W27" s="9"/>
       <c r="X27" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="X27:X29" si="93">U27-W27</f>
         <v>0</v>
       </c>
       <c r="Y27" s="11"/>
       <c r="Z27" s="9"/>
       <c r="AA27" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" ref="AA27:AA29" si="94">X27-Z27</f>
         <v>0</v>
       </c>
       <c r="AB27" s="11"/>
       <c r="AC27" s="9"/>
       <c r="AD27" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="AD27:AD29" si="95">AA27-AC27</f>
         <v>0</v>
       </c>
       <c r="AE27" s="11"/>
       <c r="AF27" s="9"/>
       <c r="AG27" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="AG27:AG29" si="96">AD27-AF27</f>
         <v>0</v>
       </c>
       <c r="AH27" s="11"/>
       <c r="AI27" s="9"/>
       <c r="AJ27" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="AJ27:AJ29" si="97">AG27-AI27</f>
         <v>0</v>
       </c>
       <c r="AK27" s="11"/>
       <c r="AL27" s="9"/>
       <c r="AM27" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" ref="AM27:AM29" si="98">AJ27-AL27</f>
         <v>0</v>
       </c>
       <c r="AN27" s="11"/>
       <c r="AO27" s="9"/>
       <c r="AP27" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" ref="AP27:AP29" si="99">AM27-AO27</f>
         <v>0</v>
       </c>
       <c r="AQ27" s="11"/>
       <c r="AR27" s="9"/>
       <c r="AS27" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" ref="AS27:AS29" si="100">AP27-AR27</f>
         <v>0</v>
       </c>
       <c r="AT27" s="11"/>
       <c r="AU27" s="9"/>
       <c r="AV27" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" ref="AV27:AV29" si="101">AS27-AU27</f>
         <v>0</v>
       </c>
       <c r="AW27" s="11"/>
       <c r="AX27" s="9"/>
       <c r="AY27" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" ref="AY27:AY29" si="102">AV27-AX27</f>
         <v>0</v>
       </c>
       <c r="AZ27" s="11"/>
       <c r="BA27" s="9"/>
       <c r="BB27" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" ref="BB27:BB29" si="103">AY27-BA27</f>
         <v>0</v>
       </c>
       <c r="BC27" s="11"/>
       <c r="BD27" s="9"/>
       <c r="BE27" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" ref="BE27:BE29" si="104">BB27-BD27</f>
         <v>0</v>
       </c>
       <c r="BF27" s="11"/>
       <c r="BG27" s="9"/>
       <c r="BH27" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" ref="BH27:BH29" si="105">BE27-BG27</f>
         <v>0</v>
       </c>
       <c r="BI27" s="11"/>
       <c r="BJ27" s="9"/>
       <c r="BK27" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" ref="BK27:BK29" si="106">BH27-BJ27</f>
         <v>0</v>
       </c>
       <c r="BL27" s="11"/>
       <c r="BM27" s="9"/>
       <c r="BN27" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" ref="BN27:BN29" si="107">BK27-BM27</f>
         <v>0</v>
       </c>
       <c r="BO27" s="11"/>
       <c r="BP27" s="12">
-        <f t="shared" si="64"/>
+        <f t="shared" ref="BP27:BP29" si="108">H27+K27+N27+Q27+T27+W27+Z27+AC27+AF27+AI27+AL27+AO27+AR27+AU27+AX27+BA27+BD27+BG27+BJ27+BM27</f>
         <v>0</v>
       </c>
       <c r="BQ27" s="12">
-        <f t="shared" si="65"/>
+        <f t="shared" ref="BQ27:BQ29" si="109">G27-BP27</f>
         <v>0</v>
       </c>
     </row>
@@ -3338,693 +3401,836 @@
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="J28" s="11"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9">
-        <f t="shared" si="45"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="M28" s="11"/>
       <c r="N28" s="9"/>
       <c r="O28" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="P28" s="11"/>
       <c r="Q28" s="9"/>
       <c r="R28" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="S28" s="11"/>
       <c r="T28" s="9"/>
       <c r="U28" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="V28" s="11"/>
       <c r="W28" s="9"/>
       <c r="X28" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="Y28" s="11"/>
       <c r="Z28" s="9"/>
       <c r="AA28" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="AB28" s="11"/>
       <c r="AC28" s="9"/>
       <c r="AD28" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="AE28" s="11"/>
       <c r="AF28" s="9"/>
       <c r="AG28" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AH28" s="11"/>
       <c r="AI28" s="9"/>
       <c r="AJ28" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="AK28" s="11"/>
       <c r="AL28" s="9"/>
       <c r="AM28" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="AN28" s="11"/>
       <c r="AO28" s="9"/>
       <c r="AP28" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="AQ28" s="11"/>
       <c r="AR28" s="9"/>
       <c r="AS28" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="AT28" s="11"/>
       <c r="AU28" s="9"/>
       <c r="AV28" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="AW28" s="11"/>
       <c r="AX28" s="9"/>
       <c r="AY28" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="AZ28" s="11"/>
       <c r="BA28" s="9"/>
       <c r="BB28" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="BC28" s="11"/>
       <c r="BD28" s="9"/>
       <c r="BE28" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="BF28" s="11"/>
       <c r="BG28" s="9"/>
       <c r="BH28" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="BI28" s="11"/>
       <c r="BJ28" s="9"/>
       <c r="BK28" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="BL28" s="11"/>
       <c r="BM28" s="9"/>
       <c r="BN28" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="BO28" s="11"/>
       <c r="BP28" s="12">
-        <f t="shared" si="64"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="BQ28" s="12">
-        <f t="shared" si="65"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:69" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="s">
+    <row r="29" spans="2:69" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="11"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="11"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="11"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="V29" s="11"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="9"/>
+      <c r="AD29" s="9">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="AE29" s="11"/>
+      <c r="AF29" s="9"/>
+      <c r="AG29" s="9">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="AH29" s="11"/>
+      <c r="AI29" s="9"/>
+      <c r="AJ29" s="9">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="AK29" s="11"/>
+      <c r="AL29" s="9"/>
+      <c r="AM29" s="9">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="AN29" s="11"/>
+      <c r="AO29" s="9"/>
+      <c r="AP29" s="9">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="11"/>
+      <c r="AR29" s="9"/>
+      <c r="AS29" s="9">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="AT29" s="11"/>
+      <c r="AU29" s="9"/>
+      <c r="AV29" s="9">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="AW29" s="11"/>
+      <c r="AX29" s="9"/>
+      <c r="AY29" s="9">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="AZ29" s="11"/>
+      <c r="BA29" s="9"/>
+      <c r="BB29" s="9">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="BC29" s="11"/>
+      <c r="BD29" s="9"/>
+      <c r="BE29" s="9">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="BF29" s="11"/>
+      <c r="BG29" s="9"/>
+      <c r="BH29" s="9">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="BI29" s="11"/>
+      <c r="BJ29" s="9"/>
+      <c r="BK29" s="9">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="BL29" s="11"/>
+      <c r="BM29" s="9"/>
+      <c r="BN29" s="9">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="BO29" s="11"/>
+      <c r="BP29" s="12">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="BQ29" s="12">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:69" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="2:69" ht="30" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9">
-        <f t="shared" ref="I32:I35" si="66">G32-H32</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="11"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9">
-        <f t="shared" ref="L32:L35" si="67">I32-K32</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="11"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9">
-        <f t="shared" ref="O32:O35" si="68">L32-N32</f>
-        <v>0</v>
-      </c>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9">
-        <f t="shared" ref="R32:R35" si="69">O32-Q32</f>
-        <v>0</v>
-      </c>
-      <c r="S32" s="11"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9">
-        <f t="shared" ref="U32:U35" si="70">R32-T32</f>
-        <v>0</v>
-      </c>
-      <c r="V32" s="11"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9">
-        <f t="shared" ref="X32:X35" si="71">U32-W32</f>
-        <v>0</v>
-      </c>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="9"/>
-      <c r="AA32" s="9">
-        <f t="shared" ref="AA32:AA35" si="72">X32-Z32</f>
-        <v>0</v>
-      </c>
-      <c r="AB32" s="11"/>
-      <c r="AC32" s="9"/>
-      <c r="AD32" s="9">
-        <f t="shared" ref="AD32:AD35" si="73">AA32-AC32</f>
-        <v>0</v>
-      </c>
-      <c r="AE32" s="11"/>
-      <c r="AF32" s="9"/>
-      <c r="AG32" s="9">
-        <f t="shared" ref="AG32:AG35" si="74">AD32-AF32</f>
-        <v>0</v>
-      </c>
-      <c r="AH32" s="11"/>
-      <c r="AI32" s="9"/>
-      <c r="AJ32" s="9">
-        <f t="shared" ref="AJ32:AJ35" si="75">AG32-AI32</f>
-        <v>0</v>
-      </c>
-      <c r="AK32" s="11"/>
-      <c r="AL32" s="9"/>
-      <c r="AM32" s="9">
-        <f t="shared" ref="AM32:AM35" si="76">AJ32-AL32</f>
-        <v>0</v>
-      </c>
-      <c r="AN32" s="11"/>
-      <c r="AO32" s="9"/>
-      <c r="AP32" s="9">
-        <f t="shared" ref="AP32:AP35" si="77">AM32-AO32</f>
-        <v>0</v>
-      </c>
-      <c r="AQ32" s="11"/>
-      <c r="AR32" s="9"/>
-      <c r="AS32" s="9">
-        <f t="shared" ref="AS32:AS35" si="78">AP32-AR32</f>
-        <v>0</v>
-      </c>
-      <c r="AT32" s="11"/>
-      <c r="AU32" s="9"/>
-      <c r="AV32" s="9">
-        <f t="shared" ref="AV32:AV35" si="79">AS32-AU32</f>
-        <v>0</v>
-      </c>
-      <c r="AW32" s="11"/>
-      <c r="AX32" s="9"/>
-      <c r="AY32" s="9">
-        <f t="shared" ref="AY32:AY35" si="80">AV32-AX32</f>
-        <v>0</v>
-      </c>
-      <c r="AZ32" s="11"/>
-      <c r="BA32" s="9"/>
-      <c r="BB32" s="9">
-        <f t="shared" ref="BB32:BB35" si="81">AY32-BA32</f>
-        <v>0</v>
-      </c>
-      <c r="BC32" s="11"/>
-      <c r="BD32" s="9"/>
-      <c r="BE32" s="9">
-        <f t="shared" ref="BE32:BE35" si="82">BB32-BD32</f>
-        <v>0</v>
-      </c>
-      <c r="BF32" s="11"/>
-      <c r="BG32" s="9"/>
-      <c r="BH32" s="9">
-        <f t="shared" ref="BH32:BH35" si="83">BE32-BG32</f>
-        <v>0</v>
-      </c>
-      <c r="BI32" s="11"/>
-      <c r="BJ32" s="9"/>
-      <c r="BK32" s="9">
-        <f t="shared" ref="BK32:BK35" si="84">BH32-BJ32</f>
-        <v>0</v>
-      </c>
-      <c r="BL32" s="11"/>
-      <c r="BM32" s="9"/>
-      <c r="BN32" s="9">
-        <f t="shared" ref="BN32:BN35" si="85">BK32-BM32</f>
-        <v>0</v>
-      </c>
-      <c r="BO32" s="11"/>
-      <c r="BP32" s="12">
-        <f t="shared" ref="BP32:BP35" si="86">H32+K32+N32+Q32+T32+W32+Z32+AC32+AF32+AI32+AL32+AO32+AR32+AU32+AX32+BA32+BD32+BG32+BJ32+BM32</f>
-        <v>0</v>
-      </c>
-      <c r="BQ32" s="12">
-        <f t="shared" ref="BQ32:BQ35" si="87">G32-BP32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:69" ht="45" x14ac:dyDescent="0.25">
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" ref="I33:I36" si="110">G33-H33</f>
         <v>0</v>
       </c>
       <c r="J33" s="11"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9">
-        <f t="shared" si="67"/>
+        <f t="shared" ref="L33:L36" si="111">I33-K33</f>
         <v>0</v>
       </c>
       <c r="M33" s="11"/>
       <c r="N33" s="9"/>
       <c r="O33" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" ref="O33:O36" si="112">L33-N33</f>
         <v>0</v>
       </c>
       <c r="P33" s="11"/>
       <c r="Q33" s="9"/>
       <c r="R33" s="9">
-        <f t="shared" si="69"/>
+        <f t="shared" ref="R33:R36" si="113">O33-Q33</f>
         <v>0</v>
       </c>
       <c r="S33" s="11"/>
       <c r="T33" s="9"/>
       <c r="U33" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" ref="U33:U36" si="114">R33-T33</f>
         <v>0</v>
       </c>
       <c r="V33" s="11"/>
       <c r="W33" s="9"/>
       <c r="X33" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" ref="X33:X36" si="115">U33-W33</f>
         <v>0</v>
       </c>
       <c r="Y33" s="11"/>
       <c r="Z33" s="9"/>
       <c r="AA33" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" ref="AA33:AA36" si="116">X33-Z33</f>
         <v>0</v>
       </c>
       <c r="AB33" s="11"/>
       <c r="AC33" s="9"/>
       <c r="AD33" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" ref="AD33:AD36" si="117">AA33-AC33</f>
         <v>0</v>
       </c>
       <c r="AE33" s="11"/>
       <c r="AF33" s="9"/>
       <c r="AG33" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" ref="AG33:AG36" si="118">AD33-AF33</f>
         <v>0</v>
       </c>
       <c r="AH33" s="11"/>
       <c r="AI33" s="9"/>
       <c r="AJ33" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" ref="AJ33:AJ36" si="119">AG33-AI33</f>
         <v>0</v>
       </c>
       <c r="AK33" s="11"/>
       <c r="AL33" s="9"/>
       <c r="AM33" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" ref="AM33:AM36" si="120">AJ33-AL33</f>
         <v>0</v>
       </c>
       <c r="AN33" s="11"/>
       <c r="AO33" s="9"/>
       <c r="AP33" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" ref="AP33:AP36" si="121">AM33-AO33</f>
         <v>0</v>
       </c>
       <c r="AQ33" s="11"/>
       <c r="AR33" s="9"/>
       <c r="AS33" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" ref="AS33:AS36" si="122">AP33-AR33</f>
         <v>0</v>
       </c>
       <c r="AT33" s="11"/>
       <c r="AU33" s="9"/>
       <c r="AV33" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" ref="AV33:AV36" si="123">AS33-AU33</f>
         <v>0</v>
       </c>
       <c r="AW33" s="11"/>
       <c r="AX33" s="9"/>
       <c r="AY33" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" ref="AY33:AY36" si="124">AV33-AX33</f>
         <v>0</v>
       </c>
       <c r="AZ33" s="11"/>
       <c r="BA33" s="9"/>
       <c r="BB33" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" ref="BB33:BB36" si="125">AY33-BA33</f>
         <v>0</v>
       </c>
       <c r="BC33" s="11"/>
       <c r="BD33" s="9"/>
       <c r="BE33" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" ref="BE33:BE36" si="126">BB33-BD33</f>
         <v>0</v>
       </c>
       <c r="BF33" s="11"/>
       <c r="BG33" s="9"/>
       <c r="BH33" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" ref="BH33:BH36" si="127">BE33-BG33</f>
         <v>0</v>
       </c>
       <c r="BI33" s="11"/>
       <c r="BJ33" s="9"/>
       <c r="BK33" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" ref="BK33:BK36" si="128">BH33-BJ33</f>
         <v>0</v>
       </c>
       <c r="BL33" s="11"/>
       <c r="BM33" s="9"/>
       <c r="BN33" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" ref="BN33:BN36" si="129">BK33-BM33</f>
         <v>0</v>
       </c>
       <c r="BO33" s="11"/>
       <c r="BP33" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" ref="BP33:BP36" si="130">H33+K33+N33+Q33+T33+W33+Z33+AC33+AF33+AI33+AL33+AO33+AR33+AU33+AX33+BA33+BD33+BG33+BJ33+BM33</f>
         <v>0</v>
       </c>
       <c r="BQ33" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" ref="BQ33:BQ36" si="131">G33-BP33</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:69" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:69" ht="45" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="J34" s="11"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9">
-        <f t="shared" si="67"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="M34" s="11"/>
       <c r="N34" s="9"/>
       <c r="O34" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P34" s="11"/>
       <c r="Q34" s="9"/>
       <c r="R34" s="9">
-        <f t="shared" si="69"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="S34" s="11"/>
       <c r="T34" s="9"/>
       <c r="U34" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="V34" s="11"/>
       <c r="W34" s="9"/>
       <c r="X34" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="Y34" s="11"/>
       <c r="Z34" s="9"/>
       <c r="AA34" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="AB34" s="11"/>
       <c r="AC34" s="9"/>
       <c r="AD34" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="AE34" s="11"/>
       <c r="AF34" s="9"/>
       <c r="AG34" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="AH34" s="11"/>
       <c r="AI34" s="9"/>
       <c r="AJ34" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AK34" s="11"/>
       <c r="AL34" s="9"/>
       <c r="AM34" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AN34" s="11"/>
       <c r="AO34" s="9"/>
       <c r="AP34" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="AQ34" s="11"/>
       <c r="AR34" s="9"/>
       <c r="AS34" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="AT34" s="11"/>
       <c r="AU34" s="9"/>
       <c r="AV34" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="AW34" s="11"/>
       <c r="AX34" s="9"/>
       <c r="AY34" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="AZ34" s="11"/>
       <c r="BA34" s="9"/>
       <c r="BB34" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="BC34" s="11"/>
       <c r="BD34" s="9"/>
       <c r="BE34" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="BF34" s="11"/>
       <c r="BG34" s="9"/>
       <c r="BH34" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="BI34" s="11"/>
       <c r="BJ34" s="9"/>
       <c r="BK34" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="BL34" s="11"/>
       <c r="BM34" s="9"/>
       <c r="BN34" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="BO34" s="11"/>
       <c r="BP34" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="BQ34" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:69" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:69" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="J35" s="11"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9">
-        <f t="shared" si="67"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="M35" s="11"/>
       <c r="N35" s="9"/>
       <c r="O35" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P35" s="11"/>
       <c r="Q35" s="9"/>
       <c r="R35" s="9">
-        <f t="shared" si="69"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="S35" s="11"/>
       <c r="T35" s="9"/>
       <c r="U35" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="V35" s="11"/>
       <c r="W35" s="9"/>
       <c r="X35" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="Y35" s="11"/>
       <c r="Z35" s="9"/>
       <c r="AA35" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="AB35" s="11"/>
       <c r="AC35" s="9"/>
       <c r="AD35" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="AE35" s="11"/>
       <c r="AF35" s="9"/>
       <c r="AG35" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="AH35" s="11"/>
       <c r="AI35" s="9"/>
       <c r="AJ35" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AK35" s="11"/>
       <c r="AL35" s="9"/>
       <c r="AM35" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AN35" s="11"/>
       <c r="AO35" s="9"/>
       <c r="AP35" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="AQ35" s="11"/>
       <c r="AR35" s="9"/>
       <c r="AS35" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="AT35" s="11"/>
       <c r="AU35" s="9"/>
       <c r="AV35" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="AW35" s="11"/>
       <c r="AX35" s="9"/>
       <c r="AY35" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="AZ35" s="11"/>
       <c r="BA35" s="9"/>
       <c r="BB35" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="BC35" s="11"/>
       <c r="BD35" s="9"/>
       <c r="BE35" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="BF35" s="11"/>
       <c r="BG35" s="9"/>
       <c r="BH35" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="BI35" s="11"/>
       <c r="BJ35" s="9"/>
       <c r="BK35" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="BL35" s="11"/>
       <c r="BM35" s="9"/>
       <c r="BN35" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="BO35" s="11"/>
       <c r="BP35" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="BQ35" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="131"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="11"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="11"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="11"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="V36" s="11"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="9"/>
+      <c r="AA36" s="9">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="9"/>
+      <c r="AD36" s="9">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AE36" s="11"/>
+      <c r="AF36" s="9"/>
+      <c r="AG36" s="9">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AH36" s="11"/>
+      <c r="AI36" s="9"/>
+      <c r="AJ36" s="9">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AK36" s="11"/>
+      <c r="AL36" s="9"/>
+      <c r="AM36" s="9">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AN36" s="11"/>
+      <c r="AO36" s="9"/>
+      <c r="AP36" s="9">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="11"/>
+      <c r="AR36" s="9"/>
+      <c r="AS36" s="9">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="AT36" s="11"/>
+      <c r="AU36" s="9"/>
+      <c r="AV36" s="9">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="AW36" s="11"/>
+      <c r="AX36" s="9"/>
+      <c r="AY36" s="9">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="AZ36" s="11"/>
+      <c r="BA36" s="9"/>
+      <c r="BB36" s="9">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="BC36" s="11"/>
+      <c r="BD36" s="9"/>
+      <c r="BE36" s="9">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="BF36" s="11"/>
+      <c r="BG36" s="9"/>
+      <c r="BH36" s="9">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="BI36" s="11"/>
+      <c r="BJ36" s="9"/>
+      <c r="BK36" s="9">
+        <f t="shared" si="128"/>
+        <v>0</v>
+      </c>
+      <c r="BL36" s="11"/>
+      <c r="BM36" s="9"/>
+      <c r="BN36" s="9">
+        <f t="shared" si="129"/>
+        <v>0</v>
+      </c>
+      <c r="BO36" s="11"/>
+      <c r="BP36" s="12">
+        <f t="shared" si="130"/>
+        <v>0</v>
+      </c>
+      <c r="BQ36" s="12">
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
     </row>
@@ -4054,6 +4260,9 @@
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="69" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="8" max="16383" man="1"/>
+  </rowBreaks>
   <colBreaks count="4" manualBreakCount="4">
     <brk id="21" max="92" man="1"/>
     <brk id="36" max="92" man="1"/>

--- a/scrum/PMOInformatica Plantilla de Sprint Backlog.xlsx
+++ b/scrum/PMOInformatica Plantilla de Sprint Backlog.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$15</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sprint Backlog'!$A$1:$BR$94</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sprint Backlog'!$A$1:$BR$93</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Sprint Backlog'!$B:$F,'Sprint Backlog'!$1:$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="84">
   <si>
     <t>Columna</t>
   </si>
@@ -210,30 +210,12 @@
     <t>Como [Usuario], quiero [registrarme ], para poder [gestionar mis tareas y sean privadas y solo yo pueda verlas]</t>
   </si>
   <si>
-    <t>realizar el formulario de login</t>
-  </si>
-  <si>
-    <t>crear vista del logion</t>
-  </si>
-  <si>
-    <t>peticion a base de datos</t>
-  </si>
-  <si>
-    <t>conexion a la base de datos</t>
-  </si>
-  <si>
     <t>hu-5</t>
   </si>
   <si>
     <t>Como [Usuario], quiero [un vista individual para cada tarea], para poder [para visualizar mejor mis tareas]</t>
   </si>
   <si>
-    <t>crear la vista de la tarea</t>
-  </si>
-  <si>
-    <t>conexion con la base de datos</t>
-  </si>
-  <si>
     <t>Como [Usuario], quiero [editar tareas], para poder [corregir errores]</t>
   </si>
   <si>
@@ -246,9 +228,6 @@
     <t>realizar los servicios para cambiar la informacion</t>
   </si>
   <si>
-    <t>desarrollar Testing</t>
-  </si>
-  <si>
     <t>Alex</t>
   </si>
   <si>
@@ -277,6 +256,27 @@
   </si>
   <si>
     <t>desarrollar las Pruebas Unitarias</t>
+  </si>
+  <si>
+    <t>Realizar el formulario para registrar usuarios</t>
+  </si>
+  <si>
+    <t>Crear vista del login</t>
+  </si>
+  <si>
+    <t>Conexion a la base de datos</t>
+  </si>
+  <si>
+    <t>Peticion a base de datos</t>
+  </si>
+  <si>
+    <t>Crear la vista de la tarea</t>
+  </si>
+  <si>
+    <t>Conexion con la base de datos</t>
+  </si>
+  <si>
+    <t>Desarrollar peticiones asincronas</t>
   </si>
 </sst>
 </file>
@@ -765,13 +765,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BQ36"/>
+  <dimension ref="B1:BQ35"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,7 +860,7 @@
     </row>
     <row r="3" spans="2:69" ht="21" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:69" x14ac:dyDescent="0.25">
@@ -1143,10 +1143,10 @@
         <v>51</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5">
@@ -1288,7 +1288,7 @@
         <v>50</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5">
@@ -1427,10 +1427,10 @@
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5">
@@ -1569,10 +1569,10 @@
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5">
@@ -1711,10 +1711,10 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5">
@@ -1851,7 +1851,7 @@
     </row>
     <row r="11" spans="2:69" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="2:69" ht="45" x14ac:dyDescent="0.25">
@@ -1865,7 +1865,7 @@
         <v>53</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -2005,7 +2005,7 @@
         <v>54</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -2148,7 +2148,9 @@
       <c r="D15" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="9"/>
@@ -2286,7 +2288,9 @@
       <c r="D16" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="9"/>
@@ -2424,7 +2428,9 @@
       <c r="D17" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="9"/>
@@ -2562,7 +2568,9 @@
       <c r="D18" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="9"/>
@@ -2696,7 +2704,7 @@
     </row>
     <row r="20" spans="2:69" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="2:69" ht="60" x14ac:dyDescent="0.25">
@@ -2707,9 +2715,11 @@
         <v>60</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="9"/>
@@ -2845,9 +2855,11 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="5"/>
+        <v>78</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="9"/>
@@ -2983,9 +2995,11 @@
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="5"/>
+        <v>79</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="9"/>
@@ -3121,9 +3135,11 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="9"/>
@@ -3257,15 +3273,17 @@
     </row>
     <row r="27" spans="2:69" ht="60" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D27" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="9"/>
@@ -3401,9 +3419,11 @@
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="9"/>
@@ -3539,9 +3559,11 @@
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="5"/>
+        <v>83</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="9"/>
@@ -3675,148 +3697,150 @@
     </row>
     <row r="32" spans="2:69" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="2:69" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" s="5"/>
+        <v>65</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9">
-        <f t="shared" ref="I33:I36" si="110">G33-H33</f>
+        <f t="shared" ref="I33:I35" si="110">G33-H33</f>
         <v>0</v>
       </c>
       <c r="J33" s="11"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9">
-        <f t="shared" ref="L33:L36" si="111">I33-K33</f>
+        <f t="shared" ref="L33:L35" si="111">I33-K33</f>
         <v>0</v>
       </c>
       <c r="M33" s="11"/>
       <c r="N33" s="9"/>
       <c r="O33" s="9">
-        <f t="shared" ref="O33:O36" si="112">L33-N33</f>
+        <f t="shared" ref="O33:O35" si="112">L33-N33</f>
         <v>0</v>
       </c>
       <c r="P33" s="11"/>
       <c r="Q33" s="9"/>
       <c r="R33" s="9">
-        <f t="shared" ref="R33:R36" si="113">O33-Q33</f>
+        <f t="shared" ref="R33:R35" si="113">O33-Q33</f>
         <v>0</v>
       </c>
       <c r="S33" s="11"/>
       <c r="T33" s="9"/>
       <c r="U33" s="9">
-        <f t="shared" ref="U33:U36" si="114">R33-T33</f>
+        <f t="shared" ref="U33:U35" si="114">R33-T33</f>
         <v>0</v>
       </c>
       <c r="V33" s="11"/>
       <c r="W33" s="9"/>
       <c r="X33" s="9">
-        <f t="shared" ref="X33:X36" si="115">U33-W33</f>
+        <f t="shared" ref="X33:X35" si="115">U33-W33</f>
         <v>0</v>
       </c>
       <c r="Y33" s="11"/>
       <c r="Z33" s="9"/>
       <c r="AA33" s="9">
-        <f t="shared" ref="AA33:AA36" si="116">X33-Z33</f>
+        <f t="shared" ref="AA33:AA35" si="116">X33-Z33</f>
         <v>0</v>
       </c>
       <c r="AB33" s="11"/>
       <c r="AC33" s="9"/>
       <c r="AD33" s="9">
-        <f t="shared" ref="AD33:AD36" si="117">AA33-AC33</f>
+        <f t="shared" ref="AD33:AD35" si="117">AA33-AC33</f>
         <v>0</v>
       </c>
       <c r="AE33" s="11"/>
       <c r="AF33" s="9"/>
       <c r="AG33" s="9">
-        <f t="shared" ref="AG33:AG36" si="118">AD33-AF33</f>
+        <f t="shared" ref="AG33:AG35" si="118">AD33-AF33</f>
         <v>0</v>
       </c>
       <c r="AH33" s="11"/>
       <c r="AI33" s="9"/>
       <c r="AJ33" s="9">
-        <f t="shared" ref="AJ33:AJ36" si="119">AG33-AI33</f>
+        <f t="shared" ref="AJ33:AJ35" si="119">AG33-AI33</f>
         <v>0</v>
       </c>
       <c r="AK33" s="11"/>
       <c r="AL33" s="9"/>
       <c r="AM33" s="9">
-        <f t="shared" ref="AM33:AM36" si="120">AJ33-AL33</f>
+        <f t="shared" ref="AM33:AM35" si="120">AJ33-AL33</f>
         <v>0</v>
       </c>
       <c r="AN33" s="11"/>
       <c r="AO33" s="9"/>
       <c r="AP33" s="9">
-        <f t="shared" ref="AP33:AP36" si="121">AM33-AO33</f>
+        <f t="shared" ref="AP33:AP35" si="121">AM33-AO33</f>
         <v>0</v>
       </c>
       <c r="AQ33" s="11"/>
       <c r="AR33" s="9"/>
       <c r="AS33" s="9">
-        <f t="shared" ref="AS33:AS36" si="122">AP33-AR33</f>
+        <f t="shared" ref="AS33:AS35" si="122">AP33-AR33</f>
         <v>0</v>
       </c>
       <c r="AT33" s="11"/>
       <c r="AU33" s="9"/>
       <c r="AV33" s="9">
-        <f t="shared" ref="AV33:AV36" si="123">AS33-AU33</f>
+        <f t="shared" ref="AV33:AV35" si="123">AS33-AU33</f>
         <v>0</v>
       </c>
       <c r="AW33" s="11"/>
       <c r="AX33" s="9"/>
       <c r="AY33" s="9">
-        <f t="shared" ref="AY33:AY36" si="124">AV33-AX33</f>
+        <f t="shared" ref="AY33:AY35" si="124">AV33-AX33</f>
         <v>0</v>
       </c>
       <c r="AZ33" s="11"/>
       <c r="BA33" s="9"/>
       <c r="BB33" s="9">
-        <f t="shared" ref="BB33:BB36" si="125">AY33-BA33</f>
+        <f t="shared" ref="BB33:BB35" si="125">AY33-BA33</f>
         <v>0</v>
       </c>
       <c r="BC33" s="11"/>
       <c r="BD33" s="9"/>
       <c r="BE33" s="9">
-        <f t="shared" ref="BE33:BE36" si="126">BB33-BD33</f>
+        <f t="shared" ref="BE33:BE35" si="126">BB33-BD33</f>
         <v>0</v>
       </c>
       <c r="BF33" s="11"/>
       <c r="BG33" s="9"/>
       <c r="BH33" s="9">
-        <f t="shared" ref="BH33:BH36" si="127">BE33-BG33</f>
+        <f t="shared" ref="BH33:BH35" si="127">BE33-BG33</f>
         <v>0</v>
       </c>
       <c r="BI33" s="11"/>
       <c r="BJ33" s="9"/>
       <c r="BK33" s="9">
-        <f t="shared" ref="BK33:BK36" si="128">BH33-BJ33</f>
+        <f t="shared" ref="BK33:BK35" si="128">BH33-BJ33</f>
         <v>0</v>
       </c>
       <c r="BL33" s="11"/>
       <c r="BM33" s="9"/>
       <c r="BN33" s="9">
-        <f t="shared" ref="BN33:BN36" si="129">BK33-BM33</f>
+        <f t="shared" ref="BN33:BN35" si="129">BK33-BM33</f>
         <v>0</v>
       </c>
       <c r="BO33" s="11"/>
       <c r="BP33" s="12">
-        <f t="shared" ref="BP33:BP36" si="130">H33+K33+N33+Q33+T33+W33+Z33+AC33+AF33+AI33+AL33+AO33+AR33+AU33+AX33+BA33+BD33+BG33+BJ33+BM33</f>
+        <f t="shared" ref="BP33:BP35" si="130">H33+K33+N33+Q33+T33+W33+Z33+AC33+AF33+AI33+AL33+AO33+AR33+AU33+AX33+BA33+BD33+BG33+BJ33+BM33</f>
         <v>0</v>
       </c>
       <c r="BQ33" s="12">
-        <f t="shared" ref="BQ33:BQ36" si="131">G33-BP33</f>
+        <f t="shared" ref="BQ33:BQ35" si="131">G33-BP33</f>
         <v>0</v>
       </c>
     </row>
@@ -3824,9 +3848,11 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E34" s="5"/>
+        <v>66</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="9"/>
@@ -3964,7 +3990,9 @@
       <c r="D35" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="E35" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="9"/>
@@ -4096,156 +4124,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="11"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9">
-        <f t="shared" si="111"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="11"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9">
-        <f t="shared" si="112"/>
-        <v>0</v>
-      </c>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9">
-        <f t="shared" si="113"/>
-        <v>0</v>
-      </c>
-      <c r="S36" s="11"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9">
-        <f t="shared" si="114"/>
-        <v>0</v>
-      </c>
-      <c r="V36" s="11"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9">
-        <f t="shared" si="115"/>
-        <v>0</v>
-      </c>
-      <c r="Y36" s="11"/>
-      <c r="Z36" s="9"/>
-      <c r="AA36" s="9">
-        <f t="shared" si="116"/>
-        <v>0</v>
-      </c>
-      <c r="AB36" s="11"/>
-      <c r="AC36" s="9"/>
-      <c r="AD36" s="9">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="AE36" s="11"/>
-      <c r="AF36" s="9"/>
-      <c r="AG36" s="9">
-        <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
-      <c r="AH36" s="11"/>
-      <c r="AI36" s="9"/>
-      <c r="AJ36" s="9">
-        <f t="shared" si="119"/>
-        <v>0</v>
-      </c>
-      <c r="AK36" s="11"/>
-      <c r="AL36" s="9"/>
-      <c r="AM36" s="9">
-        <f t="shared" si="120"/>
-        <v>0</v>
-      </c>
-      <c r="AN36" s="11"/>
-      <c r="AO36" s="9"/>
-      <c r="AP36" s="9">
-        <f t="shared" si="121"/>
-        <v>0</v>
-      </c>
-      <c r="AQ36" s="11"/>
-      <c r="AR36" s="9"/>
-      <c r="AS36" s="9">
-        <f t="shared" si="122"/>
-        <v>0</v>
-      </c>
-      <c r="AT36" s="11"/>
-      <c r="AU36" s="9"/>
-      <c r="AV36" s="9">
-        <f t="shared" si="123"/>
-        <v>0</v>
-      </c>
-      <c r="AW36" s="11"/>
-      <c r="AX36" s="9"/>
-      <c r="AY36" s="9">
-        <f t="shared" si="124"/>
-        <v>0</v>
-      </c>
-      <c r="AZ36" s="11"/>
-      <c r="BA36" s="9"/>
-      <c r="BB36" s="9">
-        <f t="shared" si="125"/>
-        <v>0</v>
-      </c>
-      <c r="BC36" s="11"/>
-      <c r="BD36" s="9"/>
-      <c r="BE36" s="9">
-        <f t="shared" si="126"/>
-        <v>0</v>
-      </c>
-      <c r="BF36" s="11"/>
-      <c r="BG36" s="9"/>
-      <c r="BH36" s="9">
-        <f t="shared" si="127"/>
-        <v>0</v>
-      </c>
-      <c r="BI36" s="11"/>
-      <c r="BJ36" s="9"/>
-      <c r="BK36" s="9">
-        <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="BL36" s="11"/>
-      <c r="BM36" s="9"/>
-      <c r="BN36" s="9">
-        <f t="shared" si="129"/>
-        <v>0</v>
-      </c>
-      <c r="BO36" s="11"/>
-      <c r="BP36" s="12">
-        <f t="shared" si="130"/>
-        <v>0</v>
-      </c>
-      <c r="BQ36" s="12">
-        <f t="shared" si="131"/>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BJ4:BK4"/>
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="BP4:BQ4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="BD4:BE4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -4257,6 +4137,16 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BJ4:BK4"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="BP4:BQ4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="BD4:BE4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="69" orientation="landscape" r:id="rId1"/>

--- a/scrum/PMOInformatica Plantilla de Sprint Backlog.xlsx
+++ b/scrum/PMOInformatica Plantilla de Sprint Backlog.xlsx
@@ -207,9 +207,6 @@
     <t>obtencion de datos del formulario</t>
   </si>
   <si>
-    <t>Como [Usuario], quiero [registrarme ], para poder [gestionar mis tareas y sean privadas y solo yo pueda verlas]</t>
-  </si>
-  <si>
     <t>hu-5</t>
   </si>
   <si>
@@ -258,18 +255,6 @@
     <t>desarrollar las Pruebas Unitarias</t>
   </si>
   <si>
-    <t>Realizar el formulario para registrar usuarios</t>
-  </si>
-  <si>
-    <t>Crear vista del login</t>
-  </si>
-  <si>
-    <t>Conexion a la base de datos</t>
-  </si>
-  <si>
-    <t>Peticion a base de datos</t>
-  </si>
-  <si>
     <t>Crear la vista de la tarea</t>
   </si>
   <si>
@@ -277,6 +262,21 @@
   </si>
   <si>
     <t>Desarrollar peticiones asincronas</t>
+  </si>
+  <si>
+    <t>Como [Usuario], quiero [ingresar a la web], para poder [utilizarla mediante internet]</t>
+  </si>
+  <si>
+    <t>sincronizar el repositorio con heroku</t>
+  </si>
+  <si>
+    <t>subir el base de datos a mongo atlas en produccion</t>
+  </si>
+  <si>
+    <t>sincronizar el despliegue automatico con la rama master</t>
+  </si>
+  <si>
+    <t>configurar y sincronizar el archivo webpack a produccion</t>
   </si>
 </sst>
 </file>
@@ -768,10 +768,10 @@
   <dimension ref="B1:BQ35"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,7 +860,7 @@
     </row>
     <row r="3" spans="2:69" ht="21" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="2:69" x14ac:dyDescent="0.25">
@@ -1143,10 +1143,10 @@
         <v>51</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5">
@@ -1288,7 +1288,7 @@
         <v>50</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5">
@@ -1427,10 +1427,10 @@
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5">
@@ -1569,10 +1569,10 @@
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5">
@@ -1711,10 +1711,10 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5">
@@ -1851,7 +1851,7 @@
     </row>
     <row r="11" spans="2:69" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="2:69" ht="45" x14ac:dyDescent="0.25">
@@ -1865,7 +1865,7 @@
         <v>53</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -2005,7 +2005,7 @@
         <v>54</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -2149,7 +2149,7 @@
         <v>56</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -2289,7 +2289,7 @@
         <v>57</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -2429,7 +2429,7 @@
         <v>58</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -2569,7 +2569,7 @@
         <v>59</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -2704,21 +2704,21 @@
     </row>
     <row r="20" spans="2:69" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="21" spans="2:69" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:69" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -2851,14 +2851,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:69" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:69" ht="45" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -2991,14 +2991,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:69" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:69" ht="60" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -3131,14 +3131,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:69" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:69" ht="45" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -3273,16 +3273,16 @@
     </row>
     <row r="27" spans="2:69" ht="60" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="D27" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -3419,10 +3419,10 @@
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -3559,10 +3559,10 @@
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -3697,21 +3697,21 @@
     </row>
     <row r="32" spans="2:69" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="2:69" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="E33" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
@@ -3848,10 +3848,10 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -3991,7 +3991,7 @@
         <v>58</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -4126,6 +4126,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BJ4:BK4"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="BP4:BQ4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="BD4:BE4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -4137,16 +4147,6 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BJ4:BK4"/>
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="BP4:BQ4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="BD4:BE4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="69" orientation="landscape" r:id="rId1"/>
